--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>drop_location_id</t>
+  </si>
+  <si>
+    <t>xp_bonus</t>
+  </si>
+  <si>
+    <t>ignores_caps</t>
+  </si>
+  <si>
+    <t>can_use_on_other_items</t>
+  </si>
+  <si>
+    <t>holy_level</t>
+  </si>
+  <si>
+    <t>holy_stacks</t>
   </si>
   <si>
     <t>Copal Ring</t>
@@ -881,7 +896,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BD61"/>
+  <dimension ref="A1:BI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,9 +960,14 @@
     <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
     <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,16 +1136,31 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:61">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1146,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1196,16 +1231,19 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:61">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -1226,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1276,16 +1314,19 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:61">
       <c r="D4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -1315,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1365,16 +1406,19 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:61">
       <c r="D5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -1404,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1454,16 +1498,19 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:61">
       <c r="D6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>80</v>
@@ -1493,7 +1540,7 @@
         <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1543,16 +1590,19 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:61">
       <c r="D7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>120</v>
@@ -1582,7 +1632,7 @@
         <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1632,16 +1682,19 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BI7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:61">
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <v>145</v>
@@ -1671,7 +1724,7 @@
         <v>50</v>
       </c>
       <c r="AC8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1721,16 +1774,19 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:61">
       <c r="D9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>160</v>
@@ -1757,7 +1813,7 @@
         <v>60</v>
       </c>
       <c r="AC9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1807,16 +1863,19 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:61">
       <c r="D10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>190</v>
@@ -1843,7 +1902,7 @@
         <v>70</v>
       </c>
       <c r="AC10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1893,16 +1952,19 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:61">
       <c r="D11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -1929,7 +1991,7 @@
         <v>75</v>
       </c>
       <c r="AC11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1979,16 +2041,19 @@
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BI11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:61">
       <c r="D12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>250</v>
@@ -2015,7 +2080,7 @@
         <v>78</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2065,16 +2130,19 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:61">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>280</v>
@@ -2101,7 +2169,7 @@
         <v>90</v>
       </c>
       <c r="AC13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2151,16 +2219,19 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:61">
       <c r="D14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <v>340</v>
@@ -2187,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="AC14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2237,16 +2308,19 @@
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:61">
       <c r="D15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>380</v>
@@ -2273,7 +2347,7 @@
         <v>110</v>
       </c>
       <c r="AC15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2323,16 +2397,19 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:61">
       <c r="D16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16">
         <v>450</v>
@@ -2359,7 +2436,7 @@
         <v>130</v>
       </c>
       <c r="AC16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2409,16 +2486,19 @@
       <c r="BC16">
         <v>0</v>
       </c>
+      <c r="BI16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:61">
       <c r="D17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <v>475</v>
@@ -2445,7 +2525,7 @@
         <v>180</v>
       </c>
       <c r="AC17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2495,16 +2575,19 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:61">
       <c r="D18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>490</v>
@@ -2531,7 +2614,7 @@
         <v>180</v>
       </c>
       <c r="AC18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2581,16 +2664,19 @@
       <c r="BC18">
         <v>0</v>
       </c>
+      <c r="BI18">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:61">
       <c r="D19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>520</v>
@@ -2617,7 +2703,7 @@
         <v>190</v>
       </c>
       <c r="AC19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2667,16 +2753,19 @@
       <c r="BC19">
         <v>0</v>
       </c>
+      <c r="BI19">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:61">
       <c r="D20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H20">
         <v>540</v>
@@ -2703,7 +2792,7 @@
         <v>190</v>
       </c>
       <c r="AC20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2753,16 +2842,19 @@
       <c r="BC20">
         <v>0</v>
       </c>
+      <c r="BI20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:61">
       <c r="D21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H21">
         <v>560</v>
@@ -2789,7 +2881,7 @@
         <v>200</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2839,16 +2931,19 @@
       <c r="BC21">
         <v>0</v>
       </c>
+      <c r="BI21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:61">
       <c r="D22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H22">
         <v>580</v>
@@ -2875,7 +2970,7 @@
         <v>200</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2925,16 +3020,19 @@
       <c r="BC22">
         <v>0</v>
       </c>
+      <c r="BI22">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:61">
       <c r="D23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -2961,7 +3059,7 @@
         <v>200</v>
       </c>
       <c r="AC23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3011,16 +3109,19 @@
       <c r="BC23">
         <v>0</v>
       </c>
+      <c r="BI23">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:61">
       <c r="D24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H24">
         <v>620</v>
@@ -3047,7 +3148,7 @@
         <v>200</v>
       </c>
       <c r="AC24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3097,16 +3198,19 @@
       <c r="BC24">
         <v>0</v>
       </c>
+      <c r="BI24">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:61">
       <c r="D25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>630</v>
@@ -3133,7 +3237,7 @@
         <v>200</v>
       </c>
       <c r="AC25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3183,16 +3287,19 @@
       <c r="BC25">
         <v>0</v>
       </c>
+      <c r="BI25">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:61">
       <c r="D26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>640</v>
@@ -3219,7 +3326,7 @@
         <v>200</v>
       </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3269,16 +3376,19 @@
       <c r="BC26">
         <v>0</v>
       </c>
+      <c r="BI26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:61">
       <c r="D27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H27">
         <v>660</v>
@@ -3305,7 +3415,7 @@
         <v>200</v>
       </c>
       <c r="AC27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3355,16 +3465,19 @@
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BI27">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:61">
       <c r="D28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H28">
         <v>680</v>
@@ -3391,7 +3504,7 @@
         <v>200</v>
       </c>
       <c r="AC28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3441,16 +3554,19 @@
       <c r="BC28">
         <v>0</v>
       </c>
+      <c r="BI28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:56">
+    <row r="29" spans="1:61">
       <c r="D29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H29">
         <v>700</v>
@@ -3477,7 +3593,7 @@
         <v>200</v>
       </c>
       <c r="AC29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3527,16 +3643,19 @@
       <c r="BC29">
         <v>0</v>
       </c>
+      <c r="BI29">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:61">
       <c r="D30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H30">
         <v>720</v>
@@ -3572,7 +3691,7 @@
         <v>200</v>
       </c>
       <c r="AC30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3622,16 +3741,19 @@
       <c r="BC30">
         <v>0</v>
       </c>
+      <c r="BI30">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:61">
       <c r="D31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H31">
         <v>730</v>
@@ -3673,7 +3795,7 @@
         <v>200</v>
       </c>
       <c r="AC31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3723,16 +3845,19 @@
       <c r="BC31">
         <v>0</v>
       </c>
+      <c r="BI31">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:61">
       <c r="D32" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H32">
         <v>740</v>
@@ -3765,7 +3890,7 @@
         <v>210</v>
       </c>
       <c r="AC32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3815,16 +3940,19 @@
       <c r="BC32">
         <v>0</v>
       </c>
+      <c r="BI32">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:61">
       <c r="D33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H33">
         <v>800</v>
@@ -3851,7 +3979,7 @@
         <v>220</v>
       </c>
       <c r="AC33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3901,16 +4029,19 @@
       <c r="BC33">
         <v>0</v>
       </c>
+      <c r="BI33">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:61">
       <c r="D34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H34">
         <v>845</v>
@@ -3937,7 +4068,7 @@
         <v>230</v>
       </c>
       <c r="AC34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3987,16 +4118,19 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BI34">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:61">
       <c r="D35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H35">
         <v>900</v>
@@ -4035,7 +4169,7 @@
         <v>230</v>
       </c>
       <c r="AC35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4088,16 +4222,19 @@
       <c r="BC35">
         <v>0</v>
       </c>
+      <c r="BI35">
+        <v>12</v>
+      </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:61">
       <c r="D36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H36">
         <v>950</v>
@@ -4136,7 +4273,7 @@
         <v>240</v>
       </c>
       <c r="AC36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4189,16 +4326,19 @@
       <c r="BC36">
         <v>0</v>
       </c>
+      <c r="BI36">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:61">
       <c r="D37" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H37">
         <v>1000</v>
@@ -4231,7 +4371,7 @@
         <v>250</v>
       </c>
       <c r="AC37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4284,16 +4424,19 @@
       <c r="BC37">
         <v>0</v>
       </c>
+      <c r="BI37">
+        <v>13</v>
+      </c>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:61">
       <c r="D38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H38">
         <v>1100</v>
@@ -4326,7 +4469,7 @@
         <v>250</v>
       </c>
       <c r="AC38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4379,16 +4522,19 @@
       <c r="BC38">
         <v>0</v>
       </c>
+      <c r="BI38">
+        <v>13</v>
+      </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:61">
       <c r="D39" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H39">
         <v>1200</v>
@@ -4421,7 +4567,7 @@
         <v>260</v>
       </c>
       <c r="AC39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4474,16 +4620,19 @@
       <c r="BC39">
         <v>0</v>
       </c>
+      <c r="BI39">
+        <v>13</v>
+      </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:61">
       <c r="D40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H40">
         <v>1300</v>
@@ -4516,7 +4665,7 @@
         <v>270</v>
       </c>
       <c r="AC40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4569,16 +4718,19 @@
       <c r="BC40">
         <v>0</v>
       </c>
+      <c r="BI40">
+        <v>14</v>
+      </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:61">
       <c r="D41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H41">
         <v>1400</v>
@@ -4611,7 +4763,7 @@
         <v>275</v>
       </c>
       <c r="AC41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4664,16 +4816,19 @@
       <c r="BC41">
         <v>0</v>
       </c>
+      <c r="BI41">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:61">
       <c r="D42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H42">
         <v>1500</v>
@@ -4706,7 +4861,7 @@
         <v>280</v>
       </c>
       <c r="AC42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4759,16 +4914,19 @@
       <c r="BC42">
         <v>0</v>
       </c>
+      <c r="BI42">
+        <v>14</v>
+      </c>
     </row>
-    <row r="43" spans="1:56">
+    <row r="43" spans="1:61">
       <c r="D43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H43">
         <v>1600</v>
@@ -4801,7 +4959,7 @@
         <v>285</v>
       </c>
       <c r="AC43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4854,16 +5012,19 @@
       <c r="BC43">
         <v>0</v>
       </c>
+      <c r="BI43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="44" spans="1:56">
+    <row r="44" spans="1:61">
       <c r="D44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H44">
         <v>1800</v>
@@ -4896,7 +5057,7 @@
         <v>300</v>
       </c>
       <c r="AC44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4949,16 +5110,19 @@
       <c r="BC44">
         <v>0</v>
       </c>
+      <c r="BI44">
+        <v>15</v>
+      </c>
     </row>
-    <row r="45" spans="1:56">
+    <row r="45" spans="1:61">
       <c r="D45" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H45">
         <v>1900</v>
@@ -4991,7 +5155,7 @@
         <v>315</v>
       </c>
       <c r="AC45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5044,16 +5208,19 @@
       <c r="BC45">
         <v>0</v>
       </c>
+      <c r="BI45">
+        <v>16</v>
+      </c>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:61">
       <c r="D46" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H46">
         <v>2000</v>
@@ -5086,7 +5253,7 @@
         <v>320</v>
       </c>
       <c r="AC46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5139,16 +5306,19 @@
       <c r="BC46">
         <v>0</v>
       </c>
+      <c r="BI46">
+        <v>16</v>
+      </c>
     </row>
-    <row r="47" spans="1:56">
+    <row r="47" spans="1:61">
       <c r="D47" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H47">
         <v>2100</v>
@@ -5181,7 +5351,7 @@
         <v>325</v>
       </c>
       <c r="AC47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5234,16 +5404,19 @@
       <c r="BC47">
         <v>0</v>
       </c>
+      <c r="BI47">
+        <v>16</v>
+      </c>
     </row>
-    <row r="48" spans="1:56">
+    <row r="48" spans="1:61">
       <c r="D48" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H48">
         <v>2200</v>
@@ -5276,7 +5449,7 @@
         <v>330</v>
       </c>
       <c r="AC48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5329,16 +5502,19 @@
       <c r="BC48">
         <v>0</v>
       </c>
+      <c r="BI48">
+        <v>17</v>
+      </c>
     </row>
-    <row r="49" spans="1:56">
+    <row r="49" spans="1:61">
       <c r="D49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H49">
         <v>2400</v>
@@ -5371,7 +5547,7 @@
         <v>350</v>
       </c>
       <c r="AC49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5424,16 +5600,19 @@
       <c r="BC49">
         <v>0</v>
       </c>
+      <c r="BI49">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:56">
+    <row r="50" spans="1:61">
       <c r="D50" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H50">
         <v>2500</v>
@@ -5466,7 +5645,7 @@
         <v>355</v>
       </c>
       <c r="AC50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5519,16 +5698,19 @@
       <c r="BC50">
         <v>0</v>
       </c>
+      <c r="BI50">
+        <v>18</v>
+      </c>
     </row>
-    <row r="51" spans="1:56">
+    <row r="51" spans="1:61">
       <c r="D51" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H51">
         <v>2600</v>
@@ -5561,7 +5743,7 @@
         <v>360</v>
       </c>
       <c r="AC51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5614,16 +5796,19 @@
       <c r="BC51">
         <v>0</v>
       </c>
+      <c r="BI51">
+        <v>18</v>
+      </c>
     </row>
-    <row r="52" spans="1:56">
+    <row r="52" spans="1:61">
       <c r="D52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H52">
         <v>2700</v>
@@ -5656,7 +5841,7 @@
         <v>318</v>
       </c>
       <c r="AC52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5700,16 +5885,19 @@
       <c r="BC52">
         <v>0</v>
       </c>
+      <c r="BI52">
+        <v>16</v>
+      </c>
     </row>
-    <row r="53" spans="1:56">
+    <row r="53" spans="1:61">
       <c r="D53" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H53">
         <v>2800</v>
@@ -5742,7 +5930,7 @@
         <v>330</v>
       </c>
       <c r="AC53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5795,16 +5983,19 @@
       <c r="BC53">
         <v>0</v>
       </c>
+      <c r="BI53">
+        <v>17</v>
+      </c>
     </row>
-    <row r="54" spans="1:56">
+    <row r="54" spans="1:61">
       <c r="D54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H54">
         <v>2900</v>
@@ -5837,7 +6028,7 @@
         <v>340</v>
       </c>
       <c r="AC54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5890,16 +6081,19 @@
       <c r="BC54">
         <v>0</v>
       </c>
+      <c r="BI54">
+        <v>17</v>
+      </c>
     </row>
-    <row r="55" spans="1:56">
+    <row r="55" spans="1:61">
       <c r="D55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H55">
         <v>3000</v>
@@ -5932,7 +6126,7 @@
         <v>350</v>
       </c>
       <c r="AC55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5985,16 +6179,19 @@
       <c r="BC55">
         <v>0</v>
       </c>
+      <c r="BI55">
+        <v>18</v>
+      </c>
     </row>
-    <row r="56" spans="1:56">
+    <row r="56" spans="1:61">
       <c r="D56" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H56">
         <v>3200</v>
@@ -6027,7 +6224,7 @@
         <v>360</v>
       </c>
       <c r="AC56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -6080,16 +6277,19 @@
       <c r="BC56">
         <v>0</v>
       </c>
+      <c r="BI56">
+        <v>18</v>
+      </c>
     </row>
-    <row r="57" spans="1:56">
+    <row r="57" spans="1:61">
       <c r="D57" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H57">
         <v>3400</v>
@@ -6122,7 +6322,7 @@
         <v>380</v>
       </c>
       <c r="AC57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6175,16 +6375,19 @@
       <c r="BC57">
         <v>0</v>
       </c>
+      <c r="BI57">
+        <v>19</v>
+      </c>
     </row>
-    <row r="58" spans="1:56">
+    <row r="58" spans="1:61">
       <c r="D58" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H58">
         <v>3600</v>
@@ -6217,7 +6420,7 @@
         <v>385</v>
       </c>
       <c r="AC58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6270,16 +6473,19 @@
       <c r="BC58">
         <v>0</v>
       </c>
+      <c r="BI58">
+        <v>19</v>
+      </c>
     </row>
-    <row r="59" spans="1:56">
+    <row r="59" spans="1:61">
       <c r="D59" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H59">
         <v>3800</v>
@@ -6312,7 +6518,7 @@
         <v>390</v>
       </c>
       <c r="AC59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6365,16 +6571,19 @@
       <c r="BC59">
         <v>0</v>
       </c>
+      <c r="BI59">
+        <v>20</v>
+      </c>
     </row>
-    <row r="60" spans="1:56">
+    <row r="60" spans="1:61">
       <c r="D60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H60">
         <v>2900</v>
@@ -6407,7 +6616,7 @@
         <v>400</v>
       </c>
       <c r="AC60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6460,16 +6669,19 @@
       <c r="BC60">
         <v>0</v>
       </c>
+      <c r="BI60">
+        <v>20</v>
+      </c>
     </row>
-    <row r="61" spans="1:56">
+    <row r="61" spans="1:61">
       <c r="D61" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H61">
         <v>3000</v>
@@ -6502,7 +6714,7 @@
         <v>401</v>
       </c>
       <c r="AC61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6554,6 +6766,9 @@
       </c>
       <c r="BC61">
         <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:61">

--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -1153,6 +1153,9 @@
       </c>
     </row>
     <row r="2" spans="1:61">
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
@@ -1236,6 +1239,9 @@
       </c>
     </row>
     <row r="3" spans="1:61">
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
@@ -1319,6 +1325,9 @@
       </c>
     </row>
     <row r="4" spans="1:61">
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
@@ -1411,6 +1420,9 @@
       </c>
     </row>
     <row r="5" spans="1:61">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
@@ -1503,6 +1515,9 @@
       </c>
     </row>
     <row r="6" spans="1:61">
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -1595,6 +1610,9 @@
       </c>
     </row>
     <row r="7" spans="1:61">
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>72</v>
       </c>
@@ -1687,6 +1705,9 @@
       </c>
     </row>
     <row r="8" spans="1:61">
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>74</v>
       </c>
@@ -1779,6 +1800,9 @@
       </c>
     </row>
     <row r="9" spans="1:61">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>76</v>
       </c>
@@ -1868,6 +1892,9 @@
       </c>
     </row>
     <row r="10" spans="1:61">
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>78</v>
       </c>
@@ -1957,6 +1984,9 @@
       </c>
     </row>
     <row r="11" spans="1:61">
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>80</v>
       </c>
@@ -2046,6 +2076,9 @@
       </c>
     </row>
     <row r="12" spans="1:61">
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>82</v>
       </c>
@@ -2135,6 +2168,9 @@
       </c>
     </row>
     <row r="13" spans="1:61">
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>84</v>
       </c>
@@ -2224,6 +2260,9 @@
       </c>
     </row>
     <row r="14" spans="1:61">
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>86</v>
       </c>
@@ -2313,6 +2352,9 @@
       </c>
     </row>
     <row r="15" spans="1:61">
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
@@ -2402,6 +2444,9 @@
       </c>
     </row>
     <row r="16" spans="1:61">
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>90</v>
       </c>
@@ -2491,6 +2536,9 @@
       </c>
     </row>
     <row r="17" spans="1:61">
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17" t="s">
         <v>92</v>
       </c>
@@ -2580,6 +2628,9 @@
       </c>
     </row>
     <row r="18" spans="1:61">
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
         <v>94</v>
       </c>
@@ -2669,6 +2720,9 @@
       </c>
     </row>
     <row r="19" spans="1:61">
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>96</v>
       </c>
@@ -2758,6 +2812,9 @@
       </c>
     </row>
     <row r="20" spans="1:61">
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
         <v>98</v>
       </c>
@@ -2847,6 +2904,9 @@
       </c>
     </row>
     <row r="21" spans="1:61">
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" t="s">
         <v>100</v>
       </c>
@@ -2936,6 +2996,9 @@
       </c>
     </row>
     <row r="22" spans="1:61">
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
@@ -3025,6 +3088,9 @@
       </c>
     </row>
     <row r="23" spans="1:61">
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
@@ -3114,6 +3180,9 @@
       </c>
     </row>
     <row r="24" spans="1:61">
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -3203,6 +3272,9 @@
       </c>
     </row>
     <row r="25" spans="1:61">
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>108</v>
       </c>
@@ -3292,6 +3364,9 @@
       </c>
     </row>
     <row r="26" spans="1:61">
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>110</v>
       </c>
@@ -3381,6 +3456,9 @@
       </c>
     </row>
     <row r="27" spans="1:61">
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" t="s">
         <v>112</v>
       </c>
@@ -3470,6 +3548,9 @@
       </c>
     </row>
     <row r="28" spans="1:61">
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>114</v>
       </c>
@@ -3559,6 +3640,9 @@
       </c>
     </row>
     <row r="29" spans="1:61">
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
         <v>116</v>
       </c>
@@ -3648,6 +3732,9 @@
       </c>
     </row>
     <row r="30" spans="1:61">
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>118</v>
       </c>
@@ -3746,6 +3833,9 @@
       </c>
     </row>
     <row r="31" spans="1:61">
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" t="s">
         <v>120</v>
       </c>
@@ -3850,6 +3940,9 @@
       </c>
     </row>
     <row r="32" spans="1:61">
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32" t="s">
         <v>122</v>
       </c>
@@ -3945,6 +4038,9 @@
       </c>
     </row>
     <row r="33" spans="1:61">
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" t="s">
         <v>124</v>
       </c>
@@ -4034,6 +4130,9 @@
       </c>
     </row>
     <row r="34" spans="1:61">
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" t="s">
         <v>126</v>
       </c>
@@ -4123,6 +4222,9 @@
       </c>
     </row>
     <row r="35" spans="1:61">
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>128</v>
       </c>
@@ -4227,6 +4329,9 @@
       </c>
     </row>
     <row r="36" spans="1:61">
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
         <v>130</v>
       </c>
@@ -4331,6 +4436,9 @@
       </c>
     </row>
     <row r="37" spans="1:61">
+      <c r="C37">
+        <v>1</v>
+      </c>
       <c r="D37" t="s">
         <v>132</v>
       </c>
@@ -4429,6 +4537,9 @@
       </c>
     </row>
     <row r="38" spans="1:61">
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38" t="s">
         <v>134</v>
       </c>
@@ -4527,6 +4638,9 @@
       </c>
     </row>
     <row r="39" spans="1:61">
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
@@ -4625,6 +4739,9 @@
       </c>
     </row>
     <row r="40" spans="1:61">
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40" t="s">
         <v>138</v>
       </c>
@@ -4723,6 +4840,9 @@
       </c>
     </row>
     <row r="41" spans="1:61">
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>140</v>
       </c>
@@ -4821,6 +4941,9 @@
       </c>
     </row>
     <row r="42" spans="1:61">
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
@@ -4919,6 +5042,9 @@
       </c>
     </row>
     <row r="43" spans="1:61">
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43" t="s">
         <v>144</v>
       </c>
@@ -5017,6 +5143,9 @@
       </c>
     </row>
     <row r="44" spans="1:61">
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44" t="s">
         <v>146</v>
       </c>
@@ -5115,6 +5244,9 @@
       </c>
     </row>
     <row r="45" spans="1:61">
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45" t="s">
         <v>148</v>
       </c>
@@ -5213,6 +5345,9 @@
       </c>
     </row>
     <row r="46" spans="1:61">
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>150</v>
       </c>
@@ -5311,6 +5446,9 @@
       </c>
     </row>
     <row r="47" spans="1:61">
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>152</v>
       </c>
@@ -5409,6 +5547,9 @@
       </c>
     </row>
     <row r="48" spans="1:61">
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>154</v>
       </c>
@@ -5507,6 +5648,9 @@
       </c>
     </row>
     <row r="49" spans="1:61">
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>156</v>
       </c>
@@ -5605,6 +5749,9 @@
       </c>
     </row>
     <row r="50" spans="1:61">
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>158</v>
       </c>
@@ -5703,6 +5850,9 @@
       </c>
     </row>
     <row r="51" spans="1:61">
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>160</v>
       </c>
@@ -5801,6 +5951,9 @@
       </c>
     </row>
     <row r="52" spans="1:61">
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>162</v>
       </c>
@@ -5890,6 +6043,9 @@
       </c>
     </row>
     <row r="53" spans="1:61">
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>164</v>
       </c>
@@ -5988,6 +6144,9 @@
       </c>
     </row>
     <row r="54" spans="1:61">
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>166</v>
       </c>
@@ -6086,6 +6245,9 @@
       </c>
     </row>
     <row r="55" spans="1:61">
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>168</v>
       </c>
@@ -6184,6 +6346,9 @@
       </c>
     </row>
     <row r="56" spans="1:61">
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56" t="s">
         <v>170</v>
       </c>
@@ -6282,6 +6447,9 @@
       </c>
     </row>
     <row r="57" spans="1:61">
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>172</v>
       </c>
@@ -6380,6 +6548,9 @@
       </c>
     </row>
     <row r="58" spans="1:61">
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>174</v>
       </c>
@@ -6478,6 +6649,9 @@
       </c>
     </row>
     <row r="59" spans="1:61">
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>176</v>
       </c>
@@ -6576,6 +6750,9 @@
       </c>
     </row>
     <row r="60" spans="1:61">
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60" t="s">
         <v>178</v>
       </c>
@@ -6674,6 +6851,9 @@
       </c>
     </row>
     <row r="61" spans="1:61">
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61" t="s">
         <v>180</v>
       </c>

--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
-  <si>
-    <t>item_suffix_id</t>
-  </si>
-  <si>
-    <t>item_prefix_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>market_sellable</t>
@@ -896,7 +893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI61"/>
+  <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,70 +901,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="246" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="35" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="246" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="56" max="56" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,13 +1144,16 @@
       <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+    </row>
+    <row r="2" spans="1:60">
+      <c r="A2">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61">
-      <c r="C2">
-        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -1162,115 +1161,118 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>25</v>
       </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
       <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
         <v>8</v>
       </c>
-      <c r="AC3" t="s">
-        <v>62</v>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1284,23 +1286,23 @@
       <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AX3">
         <v>0.0001</v>
@@ -1312,36 +1314,39 @@
         <v>0.0001</v>
       </c>
       <c r="BA3">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
+      <c r="BH3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
-      <c r="C4">
-        <v>1</v>
+    <row r="4" spans="1:60">
+      <c r="A4">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
       </c>
       <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>75</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
       </c>
       <c r="N4">
         <v>0.02</v>
@@ -1349,23 +1354,23 @@
       <c r="O4">
         <v>0.02</v>
       </c>
-      <c r="P4">
-        <v>0.02</v>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA4">
-        <v>6</v>
-      </c>
-      <c r="AB4">
         <v>12</v>
       </c>
-      <c r="AC4" t="s">
-        <v>62</v>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1379,23 +1384,23 @@
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AX4">
         <v>0.0003</v>
@@ -1407,36 +1412,39 @@
         <v>0.0003</v>
       </c>
       <c r="BA4">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
+      <c r="BH4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
-      <c r="C5">
-        <v>1</v>
+    <row r="5" spans="1:60">
+      <c r="A5">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>150</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
       </c>
       <c r="N5">
         <v>0.05</v>
@@ -1444,23 +1452,23 @@
       <c r="O5">
         <v>0.05</v>
       </c>
-      <c r="P5">
-        <v>0.05</v>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>10</v>
-      </c>
-      <c r="AB5">
         <v>20</v>
       </c>
-      <c r="AC5" t="s">
-        <v>62</v>
+      <c r="AB5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1474,23 +1482,23 @@
       <c r="AI5">
         <v>0</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AX5">
         <v>0.001</v>
@@ -1502,36 +1510,39 @@
         <v>0.001</v>
       </c>
       <c r="BA5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
+      <c r="BH5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
-      <c r="C6">
-        <v>1</v>
+    <row r="6" spans="1:60">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>250</v>
+      </c>
+      <c r="M6">
+        <v>0.08</v>
       </c>
       <c r="N6">
         <v>0.08</v>
@@ -1539,23 +1550,23 @@
       <c r="O6">
         <v>0.08</v>
       </c>
-      <c r="P6">
-        <v>0.08</v>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AA6">
-        <v>18</v>
-      </c>
-      <c r="AB6">
         <v>36</v>
       </c>
-      <c r="AC6" t="s">
-        <v>62</v>
+      <c r="AB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1569,23 +1580,23 @@
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AX6">
         <v>0.002</v>
@@ -1597,36 +1608,39 @@
         <v>0.002</v>
       </c>
       <c r="BA6">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
       </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
+      <c r="BH6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
-      <c r="C7">
-        <v>1</v>
+    <row r="7" spans="1:60">
+      <c r="A7">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
       </c>
       <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>120</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <v>500</v>
+      </c>
+      <c r="M7">
+        <v>0.1</v>
       </c>
       <c r="N7">
         <v>0.1</v>
@@ -1634,23 +1648,23 @@
       <c r="O7">
         <v>0.1</v>
       </c>
-      <c r="P7">
-        <v>0.1</v>
+      <c r="X7">
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AA7">
-        <v>24</v>
-      </c>
-      <c r="AB7">
         <v>40</v>
       </c>
-      <c r="AC7" t="s">
-        <v>62</v>
+      <c r="AB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1664,23 +1678,23 @@
       <c r="AI7">
         <v>0</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AX7">
         <v>0.003</v>
@@ -1692,36 +1706,39 @@
         <v>0.003</v>
       </c>
       <c r="BA7">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="BB7">
         <v>0</v>
       </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
+      <c r="BH7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
-      <c r="C8">
-        <v>1</v>
+    <row r="8" spans="1:60">
+      <c r="A8">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>145</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>750</v>
+      </c>
+      <c r="M8">
+        <v>0.12</v>
       </c>
       <c r="N8">
         <v>0.12</v>
@@ -1729,23 +1746,23 @@
       <c r="O8">
         <v>0.12</v>
       </c>
-      <c r="P8">
-        <v>0.12</v>
+      <c r="X8">
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AA8">
-        <v>28</v>
-      </c>
-      <c r="AB8">
         <v>50</v>
       </c>
-      <c r="AC8" t="s">
-        <v>62</v>
+      <c r="AB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1759,23 +1776,23 @@
       <c r="AI8">
         <v>0</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AX8">
         <v>0.004</v>
@@ -1787,36 +1804,39 @@
         <v>0.004</v>
       </c>
       <c r="BA8">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="BB8">
         <v>0</v>
       </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
+      <c r="BH8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
-      <c r="C9">
-        <v>1</v>
+    <row r="9" spans="1:60">
+      <c r="A9">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
       </c>
       <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>160</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>0.14</v>
       </c>
       <c r="N9">
         <v>0.14</v>
@@ -1824,20 +1844,20 @@
       <c r="O9">
         <v>0.14</v>
       </c>
-      <c r="P9">
-        <v>0.14</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>30</v>
       </c>
       <c r="AA9">
-        <v>30</v>
-      </c>
-      <c r="AB9">
         <v>60</v>
       </c>
-      <c r="AC9" t="s">
-        <v>62</v>
+      <c r="AB9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1851,23 +1871,23 @@
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AX9">
         <v>0.005</v>
@@ -1879,36 +1899,39 @@
         <v>0.005</v>
       </c>
       <c r="BA9">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <v>0</v>
       </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
+      <c r="BH9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
-      <c r="C10">
-        <v>1</v>
+    <row r="10" spans="1:60">
+      <c r="A10">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
       <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>190</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>1500</v>
+      </c>
+      <c r="M10">
+        <v>0.16</v>
       </c>
       <c r="N10">
         <v>0.16</v>
@@ -1916,20 +1939,20 @@
       <c r="O10">
         <v>0.16</v>
       </c>
-      <c r="P10">
-        <v>0.16</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>36</v>
       </c>
       <c r="AA10">
-        <v>36</v>
-      </c>
-      <c r="AB10">
         <v>70</v>
       </c>
-      <c r="AC10" t="s">
-        <v>62</v>
+      <c r="AB10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1943,23 +1966,23 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AX10">
         <v>0.006</v>
@@ -1971,36 +1994,39 @@
         <v>0.006</v>
       </c>
       <c r="BA10">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>0</v>
       </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
+      <c r="BH10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
-      <c r="C11">
-        <v>1</v>
+    <row r="11" spans="1:60">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>220</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>0.18</v>
       </c>
       <c r="N11">
         <v>0.18</v>
@@ -2008,20 +2034,20 @@
       <c r="O11">
         <v>0.18</v>
       </c>
-      <c r="P11">
-        <v>0.18</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>40</v>
       </c>
       <c r="AA11">
-        <v>40</v>
-      </c>
-      <c r="AB11">
         <v>75</v>
       </c>
-      <c r="AC11" t="s">
-        <v>62</v>
+      <c r="AB11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2035,23 +2061,23 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AX11">
         <v>0.007</v>
@@ -2063,36 +2089,39 @@
         <v>0.007</v>
       </c>
       <c r="BA11">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
       </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
+      <c r="BH11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
-      <c r="C12">
-        <v>1</v>
+    <row r="12" spans="1:60">
+      <c r="A12">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>250</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <v>5000</v>
+      </c>
+      <c r="M12">
+        <v>0.2</v>
       </c>
       <c r="N12">
         <v>0.2</v>
@@ -2100,20 +2129,20 @@
       <c r="O12">
         <v>0.2</v>
       </c>
-      <c r="P12">
-        <v>0.2</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>43</v>
       </c>
       <c r="AA12">
-        <v>43</v>
-      </c>
-      <c r="AB12">
         <v>78</v>
       </c>
-      <c r="AC12" t="s">
-        <v>62</v>
+      <c r="AB12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2127,23 +2156,23 @@
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AX12">
         <v>0.008</v>
@@ -2155,36 +2184,39 @@
         <v>0.008</v>
       </c>
       <c r="BA12">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="BB12">
         <v>0</v>
       </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
+      <c r="BH12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
-      <c r="C13">
-        <v>1</v>
+    <row r="13" spans="1:60">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
       <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>280</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <v>7000</v>
+      </c>
+      <c r="M13">
+        <v>0.22</v>
       </c>
       <c r="N13">
         <v>0.22</v>
@@ -2192,20 +2224,20 @@
       <c r="O13">
         <v>0.22</v>
       </c>
-      <c r="P13">
-        <v>0.22</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>46</v>
       </c>
       <c r="AA13">
-        <v>46</v>
-      </c>
-      <c r="AB13">
         <v>90</v>
       </c>
-      <c r="AC13" t="s">
-        <v>62</v>
+      <c r="AB13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2219,23 +2251,23 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="AX13">
         <v>0.009</v>
@@ -2247,36 +2279,39 @@
         <v>0.009</v>
       </c>
       <c r="BA13">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="BB13">
         <v>0</v>
       </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
+      <c r="BH13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="C14">
-        <v>1</v>
+    <row r="14" spans="1:60">
+      <c r="A14">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
       </c>
       <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>340</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>10000</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
       </c>
       <c r="N14">
         <v>0.25</v>
@@ -2284,20 +2319,20 @@
       <c r="O14">
         <v>0.25</v>
       </c>
-      <c r="P14">
-        <v>0.25</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>50</v>
       </c>
       <c r="AA14">
-        <v>50</v>
-      </c>
-      <c r="AB14">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
-        <v>62</v>
+      <c r="AB14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2311,23 +2346,23 @@
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>0</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AX14">
         <v>0.02</v>
@@ -2339,36 +2374,39 @@
         <v>0.02</v>
       </c>
       <c r="BA14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="BB14">
         <v>0</v>
       </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
+      <c r="BH14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="C15">
-        <v>1</v>
+    <row r="15" spans="1:60">
+      <c r="A15">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
       </c>
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>380</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <v>15000</v>
+      </c>
+      <c r="M15">
+        <v>0.27</v>
       </c>
       <c r="N15">
         <v>0.27</v>
@@ -2376,20 +2414,20 @@
       <c r="O15">
         <v>0.27</v>
       </c>
-      <c r="P15">
-        <v>0.27</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>55</v>
       </c>
       <c r="AA15">
-        <v>55</v>
-      </c>
-      <c r="AB15">
         <v>110</v>
       </c>
-      <c r="AC15" t="s">
-        <v>62</v>
+      <c r="AB15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2403,23 +2441,23 @@
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
         <v>0</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AX15">
         <v>0.04</v>
@@ -2431,36 +2469,39 @@
         <v>0.04</v>
       </c>
       <c r="BA15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BB15">
         <v>0</v>
       </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
+      <c r="BH15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
-      <c r="C16">
-        <v>1</v>
+    <row r="16" spans="1:60">
+      <c r="A16">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>450</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>30000</v>
+      </c>
+      <c r="M16">
+        <v>0.29</v>
       </c>
       <c r="N16">
         <v>0.29</v>
@@ -2468,20 +2509,20 @@
       <c r="O16">
         <v>0.29</v>
       </c>
-      <c r="P16">
-        <v>0.29</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>60</v>
       </c>
       <c r="AA16">
-        <v>60</v>
-      </c>
-      <c r="AB16">
         <v>130</v>
       </c>
-      <c r="AC16" t="s">
-        <v>62</v>
+      <c r="AB16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2495,23 +2536,23 @@
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
         <v>0</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AX16">
         <v>0.06</v>
@@ -2523,36 +2564,39 @@
         <v>0.06</v>
       </c>
       <c r="BA16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="BB16">
         <v>0</v>
       </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
+      <c r="BH16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:61">
-      <c r="C17">
-        <v>1</v>
+    <row r="17" spans="1:60">
+      <c r="A17">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
       </c>
       <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>475</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <v>60000</v>
+      </c>
+      <c r="M17">
+        <v>0.3</v>
       </c>
       <c r="N17">
         <v>0.3</v>
@@ -2560,20 +2604,20 @@
       <c r="O17">
         <v>0.3</v>
       </c>
-      <c r="P17">
-        <v>0.3</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>70</v>
       </c>
       <c r="AA17">
-        <v>70</v>
-      </c>
-      <c r="AB17">
         <v>180</v>
       </c>
-      <c r="AC17" t="s">
-        <v>62</v>
+      <c r="AB17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2587,23 +2631,23 @@
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>0</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AX17">
         <v>0.08</v>
@@ -2615,36 +2659,39 @@
         <v>0.08</v>
       </c>
       <c r="BA17">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="BB17">
         <v>0</v>
       </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
+      <c r="BH17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:61">
-      <c r="C18">
-        <v>1</v>
+    <row r="18" spans="1:60">
+      <c r="A18">
+        <v>392</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
       </c>
       <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>490</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>120000</v>
+      </c>
+      <c r="M18">
+        <v>0.35</v>
       </c>
       <c r="N18">
         <v>0.35</v>
@@ -2652,20 +2699,20 @@
       <c r="O18">
         <v>0.35</v>
       </c>
-      <c r="P18">
-        <v>0.35</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>75</v>
       </c>
       <c r="AA18">
-        <v>75</v>
-      </c>
-      <c r="AB18">
         <v>180</v>
       </c>
-      <c r="AC18" t="s">
-        <v>62</v>
+      <c r="AB18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2679,23 +2726,23 @@
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AX18">
         <v>0.1</v>
@@ -2707,36 +2754,39 @@
         <v>0.1</v>
       </c>
       <c r="BA18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BB18">
         <v>0</v>
       </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
+      <c r="BH18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:61">
-      <c r="C19">
-        <v>1</v>
+    <row r="19" spans="1:60">
+      <c r="A19">
+        <v>403</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
       </c>
       <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>520</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <v>180000</v>
+      </c>
+      <c r="M19">
+        <v>0.38</v>
       </c>
       <c r="N19">
         <v>0.38</v>
@@ -2744,20 +2794,20 @@
       <c r="O19">
         <v>0.38</v>
       </c>
-      <c r="P19">
-        <v>0.38</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>80</v>
       </c>
       <c r="AA19">
-        <v>80</v>
-      </c>
-      <c r="AB19">
         <v>190</v>
       </c>
-      <c r="AC19" t="s">
-        <v>62</v>
+      <c r="AB19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2771,23 +2821,23 @@
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AX19">
         <v>0.12</v>
@@ -2799,36 +2849,39 @@
         <v>0.12</v>
       </c>
       <c r="BA19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="BB19">
         <v>0</v>
       </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
+      <c r="BH19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:61">
-      <c r="C20">
-        <v>1</v>
+    <row r="20" spans="1:60">
+      <c r="A20">
+        <v>414</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
       </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>540</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>240000</v>
+      </c>
+      <c r="M20">
+        <v>0.4</v>
       </c>
       <c r="N20">
         <v>0.4</v>
@@ -2836,20 +2889,20 @@
       <c r="O20">
         <v>0.4</v>
       </c>
-      <c r="P20">
-        <v>0.4</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>85</v>
       </c>
       <c r="AA20">
-        <v>85</v>
-      </c>
-      <c r="AB20">
         <v>190</v>
       </c>
-      <c r="AC20" t="s">
-        <v>62</v>
+      <c r="AB20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2863,23 +2916,23 @@
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>0</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AX20">
         <v>0.14</v>
@@ -2891,36 +2944,39 @@
         <v>0.14</v>
       </c>
       <c r="BA20">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="BB20">
         <v>0</v>
       </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
+      <c r="BH20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:61">
-      <c r="C21">
-        <v>1</v>
+    <row r="21" spans="1:60">
+      <c r="A21">
+        <v>438</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
       </c>
       <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>560</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <v>260000</v>
+      </c>
+      <c r="M21">
+        <v>0.43</v>
       </c>
       <c r="N21">
         <v>0.43</v>
@@ -2928,20 +2984,20 @@
       <c r="O21">
         <v>0.43</v>
       </c>
-      <c r="P21">
-        <v>0.43</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>90</v>
       </c>
       <c r="AA21">
-        <v>90</v>
-      </c>
-      <c r="AB21">
         <v>200</v>
       </c>
-      <c r="AC21" t="s">
-        <v>62</v>
+      <c r="AB21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2955,23 +3011,23 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>0</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AX21">
         <v>0.16</v>
@@ -2983,36 +3039,39 @@
         <v>0.16</v>
       </c>
       <c r="BA21">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="BB21">
         <v>0</v>
       </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BI21">
+      <c r="BH21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:61">
-      <c r="C22">
-        <v>1</v>
+    <row r="22" spans="1:60">
+      <c r="A22">
+        <v>530</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
       </c>
       <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>102</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>580</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>350000</v>
+      </c>
+      <c r="M22">
+        <v>0.45</v>
       </c>
       <c r="N22">
         <v>0.45</v>
@@ -3020,20 +3079,20 @@
       <c r="O22">
         <v>0.45</v>
       </c>
-      <c r="P22">
-        <v>0.45</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>100</v>
       </c>
       <c r="AA22">
-        <v>100</v>
-      </c>
-      <c r="AB22">
         <v>200</v>
       </c>
-      <c r="AC22" t="s">
-        <v>62</v>
+      <c r="AB22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -3047,23 +3106,23 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>0</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AX22">
         <v>0.18</v>
@@ -3075,36 +3134,39 @@
         <v>0.18</v>
       </c>
       <c r="BA22">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <v>0</v>
       </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
+      <c r="BH22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
-      <c r="C23">
-        <v>1</v>
+    <row r="23" spans="1:60">
+      <c r="A23">
+        <v>531</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
       </c>
       <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>600</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>500000</v>
+      </c>
+      <c r="M23">
+        <v>0.48</v>
       </c>
       <c r="N23">
         <v>0.48</v>
@@ -3112,20 +3174,20 @@
       <c r="O23">
         <v>0.48</v>
       </c>
-      <c r="P23">
-        <v>0.48</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>110</v>
       </c>
       <c r="AA23">
-        <v>110</v>
-      </c>
-      <c r="AB23">
         <v>200</v>
       </c>
-      <c r="AC23" t="s">
-        <v>62</v>
+      <c r="AB23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3139,23 +3201,23 @@
       <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
       <c r="AT23">
         <v>0</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>0</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AX23">
         <v>0.2</v>
@@ -3167,36 +3229,39 @@
         <v>0.2</v>
       </c>
       <c r="BA23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BB23">
         <v>0</v>
       </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BI23">
+      <c r="BH23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
-      <c r="C24">
-        <v>1</v>
+    <row r="24" spans="1:60">
+      <c r="A24">
+        <v>532</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
       </c>
       <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>620</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>1000000</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
       </c>
       <c r="N24">
         <v>0.5</v>
@@ -3204,20 +3269,20 @@
       <c r="O24">
         <v>0.5</v>
       </c>
-      <c r="P24">
-        <v>0.5</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>120</v>
       </c>
       <c r="AA24">
-        <v>120</v>
-      </c>
-      <c r="AB24">
         <v>200</v>
       </c>
-      <c r="AC24" t="s">
-        <v>62</v>
+      <c r="AB24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3231,23 +3296,23 @@
       <c r="AI24">
         <v>0</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>0</v>
       </c>
       <c r="AT24">
         <v>0</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AX24">
         <v>0.22</v>
@@ -3259,36 +3324,39 @@
         <v>0.22</v>
       </c>
       <c r="BA24">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BB24">
         <v>0</v>
       </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BI24">
+      <c r="BH24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
-      <c r="C25">
-        <v>1</v>
+    <row r="25" spans="1:60">
+      <c r="A25">
+        <v>533</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
       </c>
       <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
         <v>108</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>630</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>10000000</v>
+      </c>
+      <c r="M25">
+        <v>0.53</v>
       </c>
       <c r="N25">
         <v>0.53</v>
@@ -3296,20 +3364,20 @@
       <c r="O25">
         <v>0.53</v>
       </c>
-      <c r="P25">
-        <v>0.53</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>130</v>
       </c>
       <c r="AA25">
-        <v>130</v>
-      </c>
-      <c r="AB25">
         <v>200</v>
       </c>
-      <c r="AC25" t="s">
-        <v>62</v>
+      <c r="AB25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3323,23 +3391,23 @@
       <c r="AI25">
         <v>0</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>0</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AX25">
         <v>0.24</v>
@@ -3351,36 +3419,39 @@
         <v>0.24</v>
       </c>
       <c r="BA25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BB25">
         <v>0</v>
       </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BI25">
+      <c r="BH25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
-      <c r="C26">
-        <v>1</v>
+    <row r="26" spans="1:60">
+      <c r="A26">
+        <v>612</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
       </c>
       <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>640</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>25000000</v>
+      </c>
+      <c r="M26">
+        <v>0.55</v>
       </c>
       <c r="N26">
         <v>0.55</v>
@@ -3388,20 +3459,20 @@
       <c r="O26">
         <v>0.55</v>
       </c>
-      <c r="P26">
-        <v>0.55</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>140</v>
       </c>
       <c r="AA26">
-        <v>140</v>
-      </c>
-      <c r="AB26">
         <v>200</v>
       </c>
-      <c r="AC26" t="s">
-        <v>62</v>
+      <c r="AB26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3415,23 +3486,23 @@
       <c r="AI26">
         <v>0</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>0</v>
       </c>
       <c r="AT26">
         <v>0</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AX26">
         <v>0.26</v>
@@ -3443,36 +3514,39 @@
         <v>0.26</v>
       </c>
       <c r="BA26">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BB26">
         <v>0</v>
       </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
+      <c r="BH26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
-      <c r="C27">
-        <v>1</v>
+    <row r="27" spans="1:60">
+      <c r="A27">
+        <v>613</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
       </c>
       <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
         <v>112</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>660</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>40000000</v>
+      </c>
+      <c r="M27">
+        <v>0.58</v>
       </c>
       <c r="N27">
         <v>0.58</v>
@@ -3480,20 +3554,20 @@
       <c r="O27">
         <v>0.58</v>
       </c>
-      <c r="P27">
-        <v>0.58</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>150</v>
       </c>
       <c r="AA27">
-        <v>150</v>
-      </c>
-      <c r="AB27">
         <v>200</v>
       </c>
-      <c r="AC27" t="s">
-        <v>62</v>
+      <c r="AB27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3507,23 +3581,23 @@
       <c r="AI27">
         <v>0</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>0</v>
       </c>
       <c r="AT27">
         <v>0</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AX27">
         <v>0.28</v>
@@ -3535,36 +3609,39 @@
         <v>0.28</v>
       </c>
       <c r="BA27">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BB27">
         <v>0</v>
       </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
+      <c r="BH27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
-      <c r="C28">
-        <v>1</v>
+    <row r="28" spans="1:60">
+      <c r="A28">
+        <v>614</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
       </c>
       <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
         <v>114</v>
       </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>680</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>65000000</v>
+      </c>
+      <c r="M28">
+        <v>0.62</v>
       </c>
       <c r="N28">
         <v>0.62</v>
@@ -3572,20 +3649,20 @@
       <c r="O28">
         <v>0.62</v>
       </c>
-      <c r="P28">
-        <v>0.62</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>160</v>
       </c>
       <c r="AA28">
-        <v>160</v>
-      </c>
-      <c r="AB28">
         <v>200</v>
       </c>
-      <c r="AC28" t="s">
-        <v>62</v>
+      <c r="AB28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3599,23 +3676,23 @@
       <c r="AI28">
         <v>0</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>0</v>
       </c>
       <c r="AT28">
         <v>0</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AX28">
         <v>0.3</v>
@@ -3627,36 +3704,39 @@
         <v>0.3</v>
       </c>
       <c r="BA28">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BB28">
         <v>0</v>
       </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
+      <c r="BH28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
-      <c r="C29">
-        <v>1</v>
+    <row r="29" spans="1:60">
+      <c r="A29">
+        <v>615</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
       </c>
       <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>700</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <v>100000000</v>
+      </c>
+      <c r="M29">
+        <v>0.65</v>
       </c>
       <c r="N29">
         <v>0.65</v>
@@ -3664,20 +3744,20 @@
       <c r="O29">
         <v>0.65</v>
       </c>
-      <c r="P29">
-        <v>0.65</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>170</v>
       </c>
       <c r="AA29">
-        <v>170</v>
-      </c>
-      <c r="AB29">
         <v>200</v>
       </c>
-      <c r="AC29" t="s">
-        <v>62</v>
+      <c r="AB29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3691,23 +3771,23 @@
       <c r="AI29">
         <v>0</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
         <v>0</v>
       </c>
-      <c r="AU29">
+      <c r="AV29">
         <v>0</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AX29">
         <v>0.32</v>
@@ -3719,36 +3799,39 @@
         <v>0.32</v>
       </c>
       <c r="BA29">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BB29">
         <v>0</v>
       </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
+      <c r="BH29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
-      <c r="C30">
-        <v>1</v>
+    <row r="30" spans="1:60">
+      <c r="A30">
+        <v>705</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
       </c>
       <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
         <v>118</v>
       </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>720</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <v>160000000</v>
+      </c>
+      <c r="M30">
+        <v>0.7</v>
       </c>
       <c r="N30">
         <v>0.7</v>
@@ -3757,7 +3840,7 @@
         <v>0.7</v>
       </c>
       <c r="P30">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3765,20 +3848,20 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>180</v>
       </c>
       <c r="AA30">
-        <v>180</v>
-      </c>
-      <c r="AB30">
         <v>200</v>
       </c>
-      <c r="AC30" t="s">
-        <v>62</v>
+      <c r="AB30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3792,23 +3875,23 @@
       <c r="AI30">
         <v>0</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AU30">
+      <c r="AV30">
         <v>0</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AX30">
         <v>0.34</v>
@@ -3820,36 +3903,39 @@
         <v>0.34</v>
       </c>
       <c r="BA30">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BB30">
         <v>0</v>
       </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BI30">
+      <c r="BH30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
-      <c r="C31">
-        <v>1</v>
+    <row r="31" spans="1:60">
+      <c r="A31">
+        <v>706</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
       </c>
       <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>730</v>
       </c>
-      <c r="K31">
+      <c r="J31">
         <v>250000000</v>
+      </c>
+      <c r="M31">
+        <v>0.73</v>
       </c>
       <c r="N31">
         <v>0.73</v>
@@ -3858,7 +3944,7 @@
         <v>0.73</v>
       </c>
       <c r="P31">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3872,20 +3958,20 @@
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>190</v>
       </c>
       <c r="AA31">
-        <v>190</v>
-      </c>
-      <c r="AB31">
         <v>200</v>
       </c>
-      <c r="AC31" t="s">
-        <v>62</v>
+      <c r="AB31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3899,23 +3985,23 @@
       <c r="AI31">
         <v>0</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>0</v>
       </c>
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AU31">
+      <c r="AV31">
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AX31">
         <v>0.36</v>
@@ -3927,36 +4013,39 @@
         <v>0.36</v>
       </c>
       <c r="BA31">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BB31">
         <v>0</v>
       </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BI31">
+      <c r="BH31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:61">
-      <c r="C32">
-        <v>1</v>
+    <row r="32" spans="1:60">
+      <c r="A32">
+        <v>707</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
       </c>
       <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>740</v>
       </c>
-      <c r="K32">
+      <c r="J32">
         <v>500000000</v>
+      </c>
+      <c r="M32">
+        <v>0.75</v>
       </c>
       <c r="N32">
         <v>0.75</v>
@@ -3965,25 +4054,25 @@
         <v>0.75</v>
       </c>
       <c r="P32">
-        <v>0.75</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>200</v>
       </c>
       <c r="AA32">
-        <v>200</v>
-      </c>
-      <c r="AB32">
         <v>210</v>
       </c>
-      <c r="AC32" t="s">
-        <v>62</v>
+      <c r="AB32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3997,23 +4086,23 @@
       <c r="AI32">
         <v>0</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AU32">
+      <c r="AV32">
         <v>0</v>
       </c>
       <c r="AW32">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AX32">
         <v>0.38</v>
@@ -4025,36 +4114,39 @@
         <v>0.38</v>
       </c>
       <c r="BA32">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BB32">
         <v>0</v>
       </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BI32">
+      <c r="BH32">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:61">
-      <c r="C33">
-        <v>1</v>
+    <row r="33" spans="1:60">
+      <c r="A33">
+        <v>708</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
       </c>
       <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
         <v>124</v>
       </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33">
+      <c r="G33">
         <v>800</v>
       </c>
-      <c r="K33">
+      <c r="J33">
         <v>1000000000</v>
+      </c>
+      <c r="M33">
+        <v>0.78</v>
       </c>
       <c r="N33">
         <v>0.78</v>
@@ -4062,20 +4154,20 @@
       <c r="O33">
         <v>0.78</v>
       </c>
-      <c r="P33">
-        <v>0.78</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>210</v>
       </c>
       <c r="AA33">
-        <v>210</v>
-      </c>
-      <c r="AB33">
         <v>220</v>
       </c>
-      <c r="AC33" t="s">
-        <v>62</v>
+      <c r="AB33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4089,23 +4181,23 @@
       <c r="AI33">
         <v>0</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>0</v>
       </c>
       <c r="AT33">
         <v>0</v>
       </c>
-      <c r="AU33">
+      <c r="AV33">
         <v>0</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AX33">
         <v>0.4</v>
@@ -4117,36 +4209,39 @@
         <v>0.4</v>
       </c>
       <c r="BA33">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BB33">
         <v>0</v>
       </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BI33">
+      <c r="BH33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:61">
-      <c r="C34">
-        <v>1</v>
+    <row r="34" spans="1:60">
+      <c r="A34">
+        <v>59182</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
       </c>
       <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
         <v>126</v>
       </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34">
+      <c r="G34">
         <v>845</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <v>2000000000</v>
+      </c>
+      <c r="M34">
+        <v>0.82</v>
       </c>
       <c r="N34">
         <v>0.82</v>
@@ -4154,20 +4249,20 @@
       <c r="O34">
         <v>0.82</v>
       </c>
-      <c r="P34">
-        <v>0.82</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>215</v>
       </c>
       <c r="AA34">
-        <v>215</v>
-      </c>
-      <c r="AB34">
         <v>230</v>
       </c>
-      <c r="AC34" t="s">
-        <v>62</v>
+      <c r="AB34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4181,23 +4276,23 @@
       <c r="AI34">
         <v>0</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
         <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
       </c>
-      <c r="AU34">
+      <c r="AV34">
         <v>0</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AX34">
         <v>0.42</v>
@@ -4209,42 +4304,45 @@
         <v>0.42</v>
       </c>
       <c r="BA34">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BB34">
         <v>0</v>
       </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BI34">
+      <c r="BH34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:61">
-      <c r="C35">
-        <v>1</v>
+    <row r="35" spans="1:60">
+      <c r="A35">
+        <v>155171</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
       </c>
       <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35">
+      <c r="G35">
         <v>900</v>
       </c>
+      <c r="J35">
+        <v>2100000000</v>
+      </c>
       <c r="K35">
-        <v>2100000000</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="N35">
         <v>0.85</v>
@@ -4252,26 +4350,26 @@
       <c r="O35">
         <v>0.85</v>
       </c>
-      <c r="P35">
-        <v>0.85</v>
+      <c r="U35">
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>215</v>
       </c>
       <c r="AA35">
-        <v>215</v>
-      </c>
-      <c r="AB35">
         <v>230</v>
       </c>
-      <c r="AC35" t="s">
-        <v>62</v>
+      <c r="AB35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4285,26 +4383,26 @@
       <c r="AI35">
         <v>0</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>0</v>
       </c>
       <c r="AT35">
         <v>0</v>
       </c>
-      <c r="AU35">
+      <c r="AV35">
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AX35">
         <v>0.44</v>
@@ -4316,42 +4414,45 @@
         <v>0.44</v>
       </c>
       <c r="BA35">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BB35">
         <v>0</v>
       </c>
-      <c r="BC35">
-        <v>0</v>
-      </c>
-      <c r="BI35">
+      <c r="BH35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:61">
-      <c r="C36">
-        <v>1</v>
+    <row r="36" spans="1:60">
+      <c r="A36">
+        <v>155173</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
       </c>
       <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
         <v>130</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36">
+      <c r="G36">
         <v>950</v>
       </c>
+      <c r="J36">
+        <v>2200000000</v>
+      </c>
       <c r="K36">
-        <v>2200000000</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N36">
         <v>0.9</v>
@@ -4359,26 +4460,26 @@
       <c r="O36">
         <v>0.9</v>
       </c>
-      <c r="P36">
-        <v>0.9</v>
+      <c r="U36">
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>220</v>
       </c>
       <c r="AA36">
-        <v>220</v>
-      </c>
-      <c r="AB36">
         <v>240</v>
       </c>
-      <c r="AC36" t="s">
-        <v>62</v>
+      <c r="AB36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4392,26 +4493,26 @@
       <c r="AI36">
         <v>0</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
         <v>0</v>
       </c>
       <c r="AT36">
         <v>0</v>
       </c>
-      <c r="AU36">
+      <c r="AV36">
         <v>0</v>
       </c>
       <c r="AW36">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AX36">
         <v>0.46</v>
@@ -4423,42 +4524,45 @@
         <v>0.46</v>
       </c>
       <c r="BA36">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BB36">
         <v>0</v>
       </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BI36">
+      <c r="BH36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:61">
-      <c r="C37">
-        <v>1</v>
+    <row r="37" spans="1:60">
+      <c r="A37">
+        <v>65467</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
       </c>
       <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
         <v>132</v>
       </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37">
+      <c r="G37">
         <v>1000</v>
       </c>
+      <c r="J37">
+        <v>2300000000</v>
+      </c>
       <c r="K37">
-        <v>2300000000</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="N37">
         <v>0.93</v>
@@ -4466,20 +4570,20 @@
       <c r="O37">
         <v>0.93</v>
       </c>
-      <c r="P37">
-        <v>0.93</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>224</v>
       </c>
       <c r="AA37">
-        <v>224</v>
-      </c>
-      <c r="AB37">
         <v>250</v>
       </c>
-      <c r="AC37" t="s">
-        <v>62</v>
+      <c r="AB37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4493,26 +4597,26 @@
       <c r="AI37">
         <v>0</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
         <v>0</v>
       </c>
       <c r="AT37">
         <v>0</v>
       </c>
-      <c r="AU37">
+      <c r="AV37">
         <v>0</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AX37">
         <v>0.48</v>
@@ -4524,42 +4628,45 @@
         <v>0.48</v>
       </c>
       <c r="BA37">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="BB37">
         <v>0</v>
       </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BI37">
+      <c r="BH37">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:61">
-      <c r="C38">
-        <v>1</v>
+    <row r="38" spans="1:60">
+      <c r="A38">
+        <v>65468</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
       </c>
       <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38">
+      <c r="G38">
         <v>1100</v>
       </c>
+      <c r="J38">
+        <v>2400000000</v>
+      </c>
       <c r="K38">
-        <v>2400000000</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="N38">
         <v>0.95</v>
@@ -4567,20 +4674,20 @@
       <c r="O38">
         <v>0.95</v>
       </c>
-      <c r="P38">
-        <v>0.95</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>228</v>
       </c>
       <c r="AA38">
-        <v>228</v>
-      </c>
-      <c r="AB38">
         <v>250</v>
       </c>
-      <c r="AC38" t="s">
-        <v>62</v>
+      <c r="AB38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4594,26 +4701,26 @@
       <c r="AI38">
         <v>0</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
         <v>0</v>
       </c>
       <c r="AT38">
         <v>0</v>
       </c>
-      <c r="AU38">
+      <c r="AV38">
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX38">
         <v>0.5</v>
@@ -4625,63 +4732,66 @@
         <v>0.5</v>
       </c>
       <c r="BA38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB38">
         <v>0</v>
       </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
+      <c r="BH38">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:61">
-      <c r="C39">
-        <v>1</v>
+    <row r="39" spans="1:60">
+      <c r="A39">
+        <v>94193</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
       </c>
       <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
         <v>136</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39">
+      <c r="G39">
         <v>1200</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <v>2800000000</v>
       </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
-      <c r="P39">
-        <v>1</v>
+      <c r="U39">
+        <v>0</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>235</v>
       </c>
       <c r="AA39">
-        <v>235</v>
-      </c>
-      <c r="AB39">
         <v>260</v>
       </c>
-      <c r="AC39" t="s">
-        <v>62</v>
+      <c r="AB39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4695,26 +4805,26 @@
       <c r="AI39">
         <v>0</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
         <v>0</v>
       </c>
       <c r="AT39">
         <v>0</v>
       </c>
-      <c r="AU39">
+      <c r="AV39">
         <v>0</v>
       </c>
       <c r="AW39">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AX39">
         <v>0.58</v>
@@ -4726,36 +4836,39 @@
         <v>0.58</v>
       </c>
       <c r="BA39">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="BB39">
         <v>0</v>
       </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BI39">
+      <c r="BH39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:61">
-      <c r="C40">
-        <v>1</v>
+    <row r="40" spans="1:60">
+      <c r="A40">
+        <v>94194</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
       </c>
       <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40">
+      <c r="G40">
         <v>1300</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <v>3200000000</v>
+      </c>
+      <c r="M40">
+        <v>1.1</v>
       </c>
       <c r="N40">
         <v>1.1</v>
@@ -4763,26 +4876,26 @@
       <c r="O40">
         <v>1.1</v>
       </c>
-      <c r="P40">
-        <v>1.1</v>
+      <c r="U40">
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>240</v>
       </c>
       <c r="AA40">
-        <v>240</v>
-      </c>
-      <c r="AB40">
         <v>270</v>
       </c>
-      <c r="AC40" t="s">
-        <v>62</v>
+      <c r="AB40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4796,26 +4909,26 @@
       <c r="AI40">
         <v>0</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
         <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
       </c>
-      <c r="AU40">
+      <c r="AV40">
         <v>0</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AX40">
         <v>0.63</v>
@@ -4827,36 +4940,39 @@
         <v>0.63</v>
       </c>
       <c r="BA40">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="BB40">
         <v>0</v>
       </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BI40">
+      <c r="BH40">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:61">
-      <c r="C41">
-        <v>1</v>
+    <row r="41" spans="1:60">
+      <c r="A41">
+        <v>94195</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
       </c>
       <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41">
+      <c r="G41">
         <v>1400</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <v>3300000000</v>
+      </c>
+      <c r="M41">
+        <v>1.15</v>
       </c>
       <c r="N41">
         <v>1.15</v>
@@ -4864,26 +4980,26 @@
       <c r="O41">
         <v>1.15</v>
       </c>
-      <c r="P41">
-        <v>1.15</v>
+      <c r="U41">
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>247</v>
       </c>
       <c r="AA41">
-        <v>247</v>
-      </c>
-      <c r="AB41">
         <v>275</v>
       </c>
-      <c r="AC41" t="s">
-        <v>62</v>
+      <c r="AB41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4897,26 +5013,26 @@
       <c r="AI41">
         <v>0</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
         <v>0</v>
       </c>
       <c r="AT41">
         <v>0</v>
       </c>
-      <c r="AU41">
+      <c r="AV41">
         <v>0</v>
       </c>
       <c r="AW41">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AX41">
         <v>0.66</v>
@@ -4928,36 +5044,39 @@
         <v>0.66</v>
       </c>
       <c r="BA41">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="BB41">
         <v>0</v>
       </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
+      <c r="BH41">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:61">
-      <c r="C42">
-        <v>1</v>
+    <row r="42" spans="1:60">
+      <c r="A42">
+        <v>94196</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
       </c>
       <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
         <v>142</v>
       </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42">
+      <c r="G42">
         <v>1500</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <v>3500000000</v>
+      </c>
+      <c r="M42">
+        <v>1.18</v>
       </c>
       <c r="N42">
         <v>1.18</v>
@@ -4965,26 +5084,26 @@
       <c r="O42">
         <v>1.18</v>
       </c>
-      <c r="P42">
-        <v>1.18</v>
+      <c r="U42">
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>254</v>
       </c>
       <c r="AA42">
-        <v>254</v>
-      </c>
-      <c r="AB42">
         <v>280</v>
       </c>
-      <c r="AC42" t="s">
-        <v>62</v>
+      <c r="AB42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4998,26 +5117,26 @@
       <c r="AI42">
         <v>0</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
         <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
       </c>
-      <c r="AU42">
+      <c r="AV42">
         <v>0</v>
       </c>
       <c r="AW42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AX42">
         <v>0.75</v>
@@ -5029,36 +5148,39 @@
         <v>0.75</v>
       </c>
       <c r="BA42">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BB42">
         <v>0</v>
       </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BI42">
+      <c r="BH42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:61">
-      <c r="C43">
-        <v>1</v>
+    <row r="43" spans="1:60">
+      <c r="A43">
+        <v>94197</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
       </c>
       <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
         <v>144</v>
       </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43">
+      <c r="G43">
         <v>1600</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <v>3700000000</v>
+      </c>
+      <c r="M43">
+        <v>1.23</v>
       </c>
       <c r="N43">
         <v>1.23</v>
@@ -5066,26 +5188,26 @@
       <c r="O43">
         <v>1.23</v>
       </c>
-      <c r="P43">
-        <v>1.23</v>
+      <c r="U43">
+        <v>0</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>260</v>
       </c>
       <c r="AA43">
-        <v>260</v>
-      </c>
-      <c r="AB43">
         <v>285</v>
       </c>
-      <c r="AC43" t="s">
-        <v>62</v>
+      <c r="AB43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5099,26 +5221,26 @@
       <c r="AI43">
         <v>0</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
         <v>0</v>
       </c>
       <c r="AT43">
         <v>0</v>
       </c>
-      <c r="AU43">
+      <c r="AV43">
         <v>0</v>
       </c>
       <c r="AW43">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AX43">
         <v>0.78</v>
@@ -5130,36 +5252,39 @@
         <v>0.78</v>
       </c>
       <c r="BA43">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="BB43">
         <v>0</v>
       </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BI43">
+      <c r="BH43">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:61">
-      <c r="C44">
-        <v>1</v>
+    <row r="44" spans="1:60">
+      <c r="A44">
+        <v>94199</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
       </c>
       <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
         <v>146</v>
       </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44">
+      <c r="G44">
         <v>1800</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <v>4400000000</v>
+      </c>
+      <c r="M44">
+        <v>1.29</v>
       </c>
       <c r="N44">
         <v>1.29</v>
@@ -5167,26 +5292,26 @@
       <c r="O44">
         <v>1.29</v>
       </c>
-      <c r="P44">
-        <v>1.29</v>
+      <c r="U44">
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>268</v>
       </c>
       <c r="AA44">
-        <v>268</v>
-      </c>
-      <c r="AB44">
         <v>300</v>
       </c>
-      <c r="AC44" t="s">
-        <v>62</v>
+      <c r="AB44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5200,26 +5325,26 @@
       <c r="AI44">
         <v>0</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
         <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
-      <c r="AU44">
+      <c r="AV44">
         <v>0</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AX44">
         <v>0.85</v>
@@ -5231,36 +5356,39 @@
         <v>0.85</v>
       </c>
       <c r="BA44">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="BB44">
         <v>0</v>
       </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BI44">
+      <c r="BH44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:61">
-      <c r="C45">
-        <v>1</v>
+    <row r="45" spans="1:60">
+      <c r="A45">
+        <v>165623</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
       </c>
       <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
         <v>148</v>
       </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45">
+      <c r="G45">
         <v>1900</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <v>4600000000</v>
+      </c>
+      <c r="M45">
+        <v>1.34</v>
       </c>
       <c r="N45">
         <v>1.34</v>
@@ -5268,26 +5396,26 @@
       <c r="O45">
         <v>1.34</v>
       </c>
-      <c r="P45">
-        <v>1.34</v>
+      <c r="U45">
+        <v>0</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>273</v>
       </c>
       <c r="AA45">
-        <v>273</v>
-      </c>
-      <c r="AB45">
         <v>315</v>
       </c>
-      <c r="AC45" t="s">
-        <v>62</v>
+      <c r="AB45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5301,26 +5429,26 @@
       <c r="AI45">
         <v>0</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
         <v>0</v>
       </c>
       <c r="AT45">
         <v>0</v>
       </c>
-      <c r="AU45">
+      <c r="AV45">
         <v>0</v>
       </c>
       <c r="AW45">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AX45">
         <v>0.88</v>
@@ -5332,36 +5460,39 @@
         <v>0.88</v>
       </c>
       <c r="BA45">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="BB45">
         <v>0</v>
       </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BI45">
+      <c r="BH45">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:61">
-      <c r="C46">
-        <v>1</v>
+    <row r="46" spans="1:60">
+      <c r="A46">
+        <v>94201</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
       </c>
       <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
         <v>150</v>
       </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46">
+      <c r="G46">
         <v>2000</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>5000000000</v>
+      </c>
+      <c r="M46">
+        <v>1.38</v>
       </c>
       <c r="N46">
         <v>1.38</v>
@@ -5369,26 +5500,26 @@
       <c r="O46">
         <v>1.38</v>
       </c>
-      <c r="P46">
-        <v>1.38</v>
+      <c r="U46">
+        <v>0</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>278</v>
       </c>
       <c r="AA46">
-        <v>278</v>
-      </c>
-      <c r="AB46">
         <v>320</v>
       </c>
-      <c r="AC46" t="s">
-        <v>62</v>
+      <c r="AB46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5402,26 +5533,26 @@
       <c r="AI46">
         <v>0</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
         <v>0</v>
       </c>
       <c r="AT46">
         <v>0</v>
       </c>
-      <c r="AU46">
+      <c r="AV46">
         <v>0</v>
       </c>
       <c r="AW46">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AX46">
         <v>0.93</v>
@@ -5433,36 +5564,39 @@
         <v>0.93</v>
       </c>
       <c r="BA46">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="BB46">
         <v>0</v>
       </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
+      <c r="BH46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:61">
-      <c r="C47">
-        <v>1</v>
+    <row r="47" spans="1:60">
+      <c r="A47">
+        <v>165624</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
       </c>
       <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
         <v>152</v>
       </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47">
+      <c r="G47">
         <v>2100</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <v>5300000000</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
       </c>
       <c r="N47">
         <v>1.4</v>
@@ -5470,26 +5604,26 @@
       <c r="O47">
         <v>1.4</v>
       </c>
-      <c r="P47">
-        <v>1.4</v>
+      <c r="U47">
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>283</v>
       </c>
       <c r="AA47">
-        <v>283</v>
-      </c>
-      <c r="AB47">
         <v>325</v>
       </c>
-      <c r="AC47" t="s">
-        <v>62</v>
+      <c r="AB47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5503,26 +5637,26 @@
       <c r="AI47">
         <v>0</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
         <v>0</v>
       </c>
       <c r="AT47">
         <v>0</v>
       </c>
-      <c r="AU47">
+      <c r="AV47">
         <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="AX47">
         <v>0.94</v>
@@ -5534,36 +5668,39 @@
         <v>0.94</v>
       </c>
       <c r="BA47">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="BB47">
         <v>0</v>
       </c>
-      <c r="BC47">
-        <v>0</v>
-      </c>
-      <c r="BI47">
+      <c r="BH47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:61">
-      <c r="C48">
-        <v>1</v>
+    <row r="48" spans="1:60">
+      <c r="A48">
+        <v>94203</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
       </c>
       <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48">
+      <c r="G48">
         <v>2200</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <v>5600000000</v>
+      </c>
+      <c r="M48">
+        <v>1.43</v>
       </c>
       <c r="N48">
         <v>1.43</v>
@@ -5571,26 +5708,26 @@
       <c r="O48">
         <v>1.43</v>
       </c>
-      <c r="P48">
-        <v>1.43</v>
+      <c r="U48">
+        <v>0</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>286</v>
       </c>
       <c r="AA48">
-        <v>286</v>
-      </c>
-      <c r="AB48">
         <v>330</v>
       </c>
-      <c r="AC48" t="s">
-        <v>62</v>
+      <c r="AB48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5604,26 +5741,26 @@
       <c r="AI48">
         <v>0</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
         <v>0</v>
       </c>
       <c r="AT48">
         <v>0</v>
       </c>
-      <c r="AU48">
+      <c r="AV48">
         <v>0</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AX48">
         <v>0.96</v>
@@ -5635,36 +5772,39 @@
         <v>0.96</v>
       </c>
       <c r="BA48">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="BB48">
         <v>0</v>
       </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
+      <c r="BH48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:61">
-      <c r="C49">
-        <v>1</v>
+    <row r="49" spans="1:60">
+      <c r="A49">
+        <v>94205</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
       </c>
       <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
         <v>156</v>
       </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" t="s">
-        <v>157</v>
-      </c>
-      <c r="H49">
+      <c r="G49">
         <v>2400</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>6000000000</v>
+      </c>
+      <c r="M49">
+        <v>1.48</v>
       </c>
       <c r="N49">
         <v>1.48</v>
@@ -5672,26 +5812,26 @@
       <c r="O49">
         <v>1.48</v>
       </c>
-      <c r="P49">
-        <v>1.48</v>
+      <c r="U49">
+        <v>0</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>295</v>
       </c>
       <c r="AA49">
-        <v>295</v>
-      </c>
-      <c r="AB49">
         <v>350</v>
       </c>
-      <c r="AC49" t="s">
-        <v>62</v>
+      <c r="AB49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5705,26 +5845,26 @@
       <c r="AI49">
         <v>0</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
         <v>0</v>
       </c>
       <c r="AT49">
         <v>0</v>
       </c>
-      <c r="AU49">
+      <c r="AV49">
         <v>0</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49">
         <v>1</v>
@@ -5736,36 +5876,39 @@
         <v>1</v>
       </c>
       <c r="BA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49">
         <v>0</v>
       </c>
-      <c r="BC49">
-        <v>0</v>
-      </c>
-      <c r="BI49">
+      <c r="BH49">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:61">
-      <c r="C50">
-        <v>1</v>
+    <row r="50" spans="1:60">
+      <c r="A50">
+        <v>165625</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
       </c>
       <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
         <v>158</v>
       </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50">
+      <c r="G50">
         <v>2500</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <v>6300000000</v>
+      </c>
+      <c r="M50">
+        <v>1.5</v>
       </c>
       <c r="N50">
         <v>1.5</v>
@@ -5773,26 +5916,26 @@
       <c r="O50">
         <v>1.5</v>
       </c>
-      <c r="P50">
-        <v>1.5</v>
+      <c r="U50">
+        <v>0</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>1</v>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>300</v>
       </c>
       <c r="AA50">
-        <v>300</v>
-      </c>
-      <c r="AB50">
         <v>355</v>
       </c>
-      <c r="AC50" t="s">
-        <v>62</v>
+      <c r="AB50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5806,26 +5949,26 @@
       <c r="AI50">
         <v>0</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
         <v>0</v>
       </c>
       <c r="AT50">
         <v>0</v>
       </c>
-      <c r="AU50">
+      <c r="AV50">
         <v>0</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50">
         <v>1</v>
@@ -5837,36 +5980,39 @@
         <v>1</v>
       </c>
       <c r="BA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50">
         <v>0</v>
       </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BI50">
+      <c r="BH50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:61">
-      <c r="C51">
-        <v>1</v>
+    <row r="51" spans="1:60">
+      <c r="A51">
+        <v>94207</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
       </c>
       <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
         <v>160</v>
       </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51">
+      <c r="G51">
         <v>2600</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <v>10000000000</v>
+      </c>
+      <c r="M51">
+        <v>1.53</v>
       </c>
       <c r="N51">
         <v>1.53</v>
@@ -5874,26 +6020,26 @@
       <c r="O51">
         <v>1.53</v>
       </c>
-      <c r="P51">
-        <v>1.53</v>
+      <c r="U51">
+        <v>0</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>305</v>
       </c>
       <c r="AA51">
-        <v>305</v>
-      </c>
-      <c r="AB51">
         <v>360</v>
       </c>
-      <c r="AC51" t="s">
-        <v>62</v>
+      <c r="AB51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5907,26 +6053,26 @@
       <c r="AI51">
         <v>0</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
         <v>0</v>
       </c>
       <c r="AT51">
         <v>0</v>
       </c>
-      <c r="AU51">
+      <c r="AV51">
         <v>0</v>
       </c>
       <c r="AW51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51">
         <v>1</v>
@@ -5938,36 +6084,39 @@
         <v>1</v>
       </c>
       <c r="BA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51">
         <v>0</v>
       </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BI51">
+      <c r="BH51">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:61">
-      <c r="C52">
-        <v>1</v>
+    <row r="52" spans="1:60">
+      <c r="A52">
+        <v>94208</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
       </c>
       <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
         <v>162</v>
       </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>163</v>
-      </c>
-      <c r="H52">
+      <c r="G52">
         <v>2700</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <v>12000000000</v>
+      </c>
+      <c r="M52">
+        <v>1.6</v>
       </c>
       <c r="N52">
         <v>1.6</v>
@@ -5975,26 +6124,26 @@
       <c r="O52">
         <v>1.6</v>
       </c>
-      <c r="P52">
-        <v>1.6</v>
+      <c r="U52">
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>308</v>
       </c>
       <c r="AA52">
-        <v>308</v>
-      </c>
-      <c r="AB52">
         <v>318</v>
       </c>
-      <c r="AC52" t="s">
-        <v>62</v>
+      <c r="AB52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6008,17 +6157,17 @@
       <c r="AI52">
         <v>0</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
         <v>0</v>
       </c>
       <c r="AW52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52">
         <v>1</v>
@@ -6030,36 +6179,39 @@
         <v>1</v>
       </c>
       <c r="BA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52">
         <v>0</v>
       </c>
-      <c r="BC52">
-        <v>0</v>
-      </c>
-      <c r="BI52">
+      <c r="BH52">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:61">
-      <c r="C53">
-        <v>1</v>
+    <row r="53" spans="1:60">
+      <c r="A53">
+        <v>296203</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
       </c>
       <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
         <v>164</v>
       </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53">
+      <c r="G53">
         <v>2800</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <v>16000000000</v>
+      </c>
+      <c r="M53">
+        <v>1.67</v>
       </c>
       <c r="N53">
         <v>1.67</v>
@@ -6067,26 +6219,26 @@
       <c r="O53">
         <v>1.67</v>
       </c>
-      <c r="P53">
-        <v>1.67</v>
+      <c r="U53">
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>1</v>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>320</v>
       </c>
       <c r="AA53">
-        <v>320</v>
-      </c>
-      <c r="AB53">
         <v>330</v>
       </c>
-      <c r="AC53" t="s">
-        <v>62</v>
+      <c r="AB53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6100,26 +6252,26 @@
       <c r="AI53">
         <v>0</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
         <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
       </c>
-      <c r="AU53">
+      <c r="AV53">
         <v>0</v>
       </c>
       <c r="AW53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53">
         <v>1</v>
@@ -6131,36 +6283,39 @@
         <v>1</v>
       </c>
       <c r="BA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53">
         <v>0</v>
       </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BI53">
+      <c r="BH53">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:61">
-      <c r="C54">
-        <v>1</v>
+    <row r="54" spans="1:60">
+      <c r="A54">
+        <v>296204</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
       </c>
       <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
         <v>166</v>
       </c>
-      <c r="E54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54">
+      <c r="G54">
         <v>2900</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <v>18000000000</v>
+      </c>
+      <c r="M54">
+        <v>1.68</v>
       </c>
       <c r="N54">
         <v>1.68</v>
@@ -6168,26 +6323,26 @@
       <c r="O54">
         <v>1.68</v>
       </c>
-      <c r="P54">
-        <v>1.68</v>
+      <c r="U54">
+        <v>0</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>330</v>
       </c>
       <c r="AA54">
-        <v>330</v>
-      </c>
-      <c r="AB54">
         <v>340</v>
       </c>
-      <c r="AC54" t="s">
-        <v>62</v>
+      <c r="AB54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6201,26 +6356,26 @@
       <c r="AI54">
         <v>0</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
         <v>0</v>
       </c>
       <c r="AT54">
         <v>0</v>
       </c>
-      <c r="AU54">
+      <c r="AV54">
         <v>0</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54">
         <v>1</v>
@@ -6232,36 +6387,39 @@
         <v>1</v>
       </c>
       <c r="BA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>0</v>
       </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
+      <c r="BH54">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:61">
-      <c r="C55">
-        <v>1</v>
+    <row r="55" spans="1:60">
+      <c r="A55">
+        <v>296205</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
       </c>
       <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
         <v>168</v>
       </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55">
+      <c r="G55">
         <v>3000</v>
       </c>
-      <c r="K55">
+      <c r="J55">
         <v>22000000000</v>
+      </c>
+      <c r="M55">
+        <v>1.7</v>
       </c>
       <c r="N55">
         <v>1.7</v>
@@ -6269,26 +6427,26 @@
       <c r="O55">
         <v>1.7</v>
       </c>
-      <c r="P55">
-        <v>1.7</v>
+      <c r="U55">
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>340</v>
       </c>
       <c r="AA55">
-        <v>340</v>
-      </c>
-      <c r="AB55">
         <v>350</v>
       </c>
-      <c r="AC55" t="s">
-        <v>62</v>
+      <c r="AB55" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -6302,26 +6460,26 @@
       <c r="AI55">
         <v>0</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>1</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
         <v>0</v>
       </c>
       <c r="AT55">
         <v>0</v>
       </c>
-      <c r="AU55">
+      <c r="AV55">
         <v>0</v>
       </c>
       <c r="AW55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55">
         <v>1</v>
@@ -6333,36 +6491,39 @@
         <v>1</v>
       </c>
       <c r="BA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55">
         <v>0</v>
       </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
+      <c r="BH55">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:61">
-      <c r="C56">
-        <v>1</v>
+    <row r="56" spans="1:60">
+      <c r="A56">
+        <v>296206</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
       </c>
       <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
         <v>170</v>
       </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56">
+      <c r="G56">
         <v>3200</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <v>24000000000</v>
+      </c>
+      <c r="M56">
+        <v>1.73</v>
       </c>
       <c r="N56">
         <v>1.73</v>
@@ -6370,26 +6531,26 @@
       <c r="O56">
         <v>1.73</v>
       </c>
-      <c r="P56">
-        <v>1.73</v>
+      <c r="U56">
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>1</v>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>350</v>
       </c>
       <c r="AA56">
-        <v>350</v>
-      </c>
-      <c r="AB56">
         <v>360</v>
       </c>
-      <c r="AC56" t="s">
-        <v>62</v>
+      <c r="AB56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -6403,26 +6564,26 @@
       <c r="AI56">
         <v>0</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>1</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
         <v>0</v>
       </c>
       <c r="AT56">
         <v>0</v>
       </c>
-      <c r="AU56">
+      <c r="AV56">
         <v>0</v>
       </c>
       <c r="AW56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56">
         <v>1</v>
@@ -6434,36 +6595,39 @@
         <v>1</v>
       </c>
       <c r="BA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56">
         <v>0</v>
       </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
+      <c r="BH56">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:61">
-      <c r="C57">
-        <v>1</v>
+    <row r="57" spans="1:60">
+      <c r="A57">
+        <v>296207</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
       </c>
       <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
         <v>172</v>
       </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
-      <c r="H57">
+      <c r="G57">
         <v>3400</v>
       </c>
-      <c r="K57">
+      <c r="J57">
         <v>26000000000</v>
+      </c>
+      <c r="M57">
+        <v>1.78</v>
       </c>
       <c r="N57">
         <v>1.78</v>
@@ -6471,26 +6635,26 @@
       <c r="O57">
         <v>1.78</v>
       </c>
-      <c r="P57">
-        <v>1.78</v>
+      <c r="U57">
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>360</v>
       </c>
       <c r="AA57">
-        <v>360</v>
-      </c>
-      <c r="AB57">
         <v>380</v>
       </c>
-      <c r="AC57" t="s">
-        <v>62</v>
+      <c r="AB57" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6504,26 +6668,26 @@
       <c r="AI57">
         <v>0</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
         <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
       </c>
-      <c r="AU57">
+      <c r="AV57">
         <v>0</v>
       </c>
       <c r="AW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX57">
         <v>1</v>
@@ -6535,36 +6699,39 @@
         <v>1</v>
       </c>
       <c r="BA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57">
         <v>0</v>
       </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BI57">
+      <c r="BH57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:61">
-      <c r="C58">
-        <v>1</v>
+    <row r="58" spans="1:60">
+      <c r="A58">
+        <v>296208</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
       </c>
       <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" t="s">
         <v>174</v>
       </c>
-      <c r="E58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" t="s">
-        <v>175</v>
-      </c>
-      <c r="H58">
+      <c r="G58">
         <v>3600</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <v>28000000000</v>
+      </c>
+      <c r="M58">
+        <v>1.8</v>
       </c>
       <c r="N58">
         <v>1.8</v>
@@ -6572,26 +6739,26 @@
       <c r="O58">
         <v>1.8</v>
       </c>
-      <c r="P58">
-        <v>1.8</v>
+      <c r="U58">
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>370</v>
       </c>
       <c r="AA58">
-        <v>370</v>
-      </c>
-      <c r="AB58">
         <v>385</v>
       </c>
-      <c r="AC58" t="s">
-        <v>62</v>
+      <c r="AB58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6605,26 +6772,26 @@
       <c r="AI58">
         <v>0</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
         <v>0</v>
       </c>
       <c r="AT58">
         <v>0</v>
       </c>
-      <c r="AU58">
+      <c r="AV58">
         <v>0</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58">
         <v>1</v>
@@ -6636,36 +6803,39 @@
         <v>1</v>
       </c>
       <c r="BA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58">
         <v>0</v>
       </c>
-      <c r="BC58">
-        <v>0</v>
-      </c>
-      <c r="BI58">
+      <c r="BH58">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:61">
-      <c r="C59">
-        <v>1</v>
+    <row r="59" spans="1:60">
+      <c r="A59">
+        <v>296209</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
       </c>
       <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59">
+      <c r="G59">
         <v>3800</v>
       </c>
-      <c r="K59">
+      <c r="J59">
         <v>30000000000</v>
+      </c>
+      <c r="M59">
+        <v>1.84</v>
       </c>
       <c r="N59">
         <v>1.84</v>
@@ -6673,26 +6843,26 @@
       <c r="O59">
         <v>1.84</v>
       </c>
-      <c r="P59">
-        <v>1.84</v>
+      <c r="U59">
+        <v>0</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>380</v>
       </c>
       <c r="AA59">
-        <v>380</v>
-      </c>
-      <c r="AB59">
         <v>390</v>
       </c>
-      <c r="AC59" t="s">
-        <v>62</v>
+      <c r="AB59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6706,26 +6876,26 @@
       <c r="AI59">
         <v>0</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>1</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AR59">
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
         <v>0</v>
       </c>
       <c r="AT59">
         <v>0</v>
       </c>
-      <c r="AU59">
+      <c r="AV59">
         <v>0</v>
       </c>
       <c r="AW59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX59">
         <v>1</v>
@@ -6737,36 +6907,39 @@
         <v>1</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB59">
         <v>0</v>
       </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BI59">
+      <c r="BH59">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:61">
-      <c r="C60">
-        <v>1</v>
+    <row r="60" spans="1:60">
+      <c r="A60">
+        <v>296210</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
       </c>
       <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
-      </c>
-      <c r="H60">
+      <c r="G60">
         <v>2900</v>
       </c>
-      <c r="K60">
+      <c r="J60">
         <v>32000000000</v>
+      </c>
+      <c r="M60">
+        <v>1.86</v>
       </c>
       <c r="N60">
         <v>1.86</v>
@@ -6774,26 +6947,26 @@
       <c r="O60">
         <v>1.86</v>
       </c>
-      <c r="P60">
-        <v>1.86</v>
+      <c r="U60">
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>1</v>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>390</v>
       </c>
       <c r="AA60">
-        <v>390</v>
-      </c>
-      <c r="AB60">
         <v>400</v>
       </c>
-      <c r="AC60" t="s">
-        <v>62</v>
+      <c r="AB60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6807,26 +6980,26 @@
       <c r="AI60">
         <v>0</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>1</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-      <c r="AR60">
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
         <v>0</v>
       </c>
       <c r="AT60">
         <v>0</v>
       </c>
-      <c r="AU60">
+      <c r="AV60">
         <v>0</v>
       </c>
       <c r="AW60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60">
         <v>1</v>
@@ -6838,36 +7011,39 @@
         <v>1</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
         <v>0</v>
       </c>
-      <c r="BC60">
-        <v>0</v>
-      </c>
-      <c r="BI60">
+      <c r="BH60">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:61">
-      <c r="C61">
-        <v>1</v>
+    <row r="61" spans="1:60">
+      <c r="A61">
+        <v>296211</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
       </c>
       <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" t="s">
         <v>180</v>
       </c>
-      <c r="E61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" t="s">
-        <v>181</v>
-      </c>
-      <c r="H61">
+      <c r="G61">
         <v>3000</v>
       </c>
-      <c r="K61">
+      <c r="J61">
         <v>34000000000</v>
+      </c>
+      <c r="M61">
+        <v>1.93</v>
       </c>
       <c r="N61">
         <v>1.93</v>
@@ -6875,26 +7051,26 @@
       <c r="O61">
         <v>1.93</v>
       </c>
-      <c r="P61">
-        <v>1.93</v>
+      <c r="U61">
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>1</v>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>400</v>
       </c>
       <c r="AA61">
-        <v>400</v>
-      </c>
-      <c r="AB61">
         <v>401</v>
       </c>
-      <c r="AC61" t="s">
-        <v>62</v>
+      <c r="AB61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6908,26 +7084,26 @@
       <c r="AI61">
         <v>0</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>1</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AR61">
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
         <v>0</v>
       </c>
       <c r="AT61">
         <v>0</v>
       </c>
-      <c r="AU61">
+      <c r="AV61">
         <v>0</v>
       </c>
       <c r="AW61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61">
         <v>1</v>
@@ -6939,15 +7115,12 @@
         <v>1</v>
       </c>
       <c r="BA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61">
         <v>0</v>
       </c>
-      <c r="BC61">
-        <v>0</v>
-      </c>
-      <c r="BI61">
+      <c r="BH61">
         <v>20</v>
       </c>
     </row>

--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -1,13 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5144391-BF36-DF4B-B629-398FD9C9249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mji0C/VYf8P/fxcunDAuUOD7TSA1g=="/>
     </ext>
@@ -564,15 +583,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -582,37 +602,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -802,77 +829,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="35.0"/>
-    <col customWidth="1" min="4" max="4" width="5.0"/>
-    <col customWidth="1" min="5" max="5" width="246.0"/>
-    <col customWidth="1" min="6" max="6" width="19.0"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
-    <col customWidth="1" min="9" max="9" width="9.0"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
-    <col customWidth="1" min="11" max="11" width="17.0"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="18.0"/>
-    <col customWidth="1" min="14" max="14" width="19.0"/>
-    <col customWidth="1" min="15" max="15" width="13.0"/>
-    <col customWidth="1" min="16" max="21" width="9.0"/>
-    <col customWidth="1" min="22" max="22" width="11.0"/>
-    <col customWidth="1" min="23" max="23" width="8.0"/>
-    <col customWidth="1" min="24" max="24" width="11.0"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="24.0"/>
-    <col customWidth="1" min="27" max="27" width="23.0"/>
-    <col customWidth="1" min="28" max="28" width="16.0"/>
-    <col customWidth="1" min="29" max="29" width="12.0"/>
-    <col customWidth="1" min="30" max="30" width="13.0"/>
-    <col customWidth="1" min="31" max="31" width="25.0"/>
-    <col customWidth="1" min="32" max="32" width="26.0"/>
-    <col customWidth="1" min="33" max="33" width="21.0"/>
-    <col customWidth="1" min="34" max="34" width="29.0"/>
-    <col customWidth="1" min="35" max="35" width="28.0"/>
-    <col customWidth="1" min="36" max="36" width="24.0"/>
-    <col customWidth="1" min="37" max="37" width="12.0"/>
-    <col customWidth="1" min="38" max="38" width="8.0"/>
-    <col customWidth="1" min="39" max="39" width="19.0"/>
-    <col customWidth="1" min="40" max="40" width="17.0"/>
-    <col customWidth="1" min="41" max="41" width="11.0"/>
-    <col customWidth="1" min="42" max="42" width="16.0"/>
-    <col customWidth="1" min="43" max="43" width="19.0"/>
-    <col customWidth="1" min="44" max="44" width="22.0"/>
-    <col customWidth="1" min="45" max="45" width="28.0"/>
-    <col customWidth="1" min="46" max="46" width="38.0"/>
-    <col customWidth="1" min="47" max="47" width="16.0"/>
-    <col customWidth="1" min="48" max="48" width="23.0"/>
-    <col customWidth="1" min="49" max="49" width="16.0"/>
-    <col customWidth="1" min="50" max="50" width="22.0"/>
-    <col customWidth="1" min="51" max="51" width="21.0"/>
-    <col customWidth="1" min="52" max="52" width="26.0"/>
-    <col customWidth="1" min="53" max="53" width="18.0"/>
-    <col customWidth="1" min="54" max="54" width="22.0"/>
-    <col customWidth="1" min="55" max="55" width="19.0"/>
-    <col customWidth="1" min="56" max="56" width="10.0"/>
-    <col customWidth="1" min="57" max="57" width="15.0"/>
-    <col customWidth="1" min="58" max="58" width="26.0"/>
-    <col customWidth="1" min="59" max="59" width="12.0"/>
-    <col customWidth="1" min="60" max="60" width="13.0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="246" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="24" max="24" width="11" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="31" max="31" width="25" customWidth="1"/>
+    <col min="32" max="32" width="26" customWidth="1"/>
+    <col min="33" max="33" width="21" customWidth="1"/>
+    <col min="34" max="34" width="29" customWidth="1"/>
+    <col min="35" max="35" width="28" customWidth="1"/>
+    <col min="36" max="36" width="24" customWidth="1"/>
+    <col min="37" max="37" width="12" customWidth="1"/>
+    <col min="38" max="38" width="8" customWidth="1"/>
+    <col min="39" max="39" width="19" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="41" max="41" width="11" customWidth="1"/>
+    <col min="42" max="42" width="16" customWidth="1"/>
+    <col min="43" max="43" width="19" customWidth="1"/>
+    <col min="44" max="44" width="22" customWidth="1"/>
+    <col min="45" max="45" width="28" customWidth="1"/>
+    <col min="46" max="46" width="38" customWidth="1"/>
+    <col min="47" max="47" width="16" customWidth="1"/>
+    <col min="48" max="48" width="23" customWidth="1"/>
+    <col min="49" max="49" width="16" customWidth="1"/>
+    <col min="50" max="50" width="22" customWidth="1"/>
+    <col min="51" max="51" width="21" customWidth="1"/>
+    <col min="52" max="52" width="26" customWidth="1"/>
+    <col min="53" max="53" width="18" customWidth="1"/>
+    <col min="54" max="54" width="22" customWidth="1"/>
+    <col min="55" max="55" width="19" customWidth="1"/>
+    <col min="56" max="56" width="10" customWidth="1"/>
+    <col min="57" max="57" width="15" customWidth="1"/>
+    <col min="58" max="58" width="26" customWidth="1"/>
+    <col min="59" max="59" width="12" customWidth="1"/>
+    <col min="60" max="60" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,12 +1083,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -1071,84 +1100,93 @@
         <v>62</v>
       </c>
       <c r="G2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0</v>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
       </c>
       <c r="X2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -1160,84 +1198,93 @@
         <v>64</v>
       </c>
       <c r="G3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
-        <v>25.0</v>
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>1.1152542372881401E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.1152542372881401E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.1152542372881401E-2</v>
       </c>
       <c r="X3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1.0E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="AX3" s="1">
-        <v>1.0E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="AY3" s="1">
-        <v>1.0E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.0E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="BA3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
@@ -1249,93 +1296,93 @@
         <v>66</v>
       </c>
       <c r="G4" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.02</v>
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <v>2.1305084745762801E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.1305084745762801E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.1305084745762801E-2</v>
       </c>
       <c r="X4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>3.0E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AX4" s="1">
-        <v>3.0E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AY4" s="1">
-        <v>3.0E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.0E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="BA4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
@@ -1347,93 +1394,93 @@
         <v>68</v>
       </c>
       <c r="G5" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.05</v>
+        <v>150</v>
+      </c>
+      <c r="M5">
+        <v>3.1457627118644201E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.1457627118644201E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.1457627118644201E-2</v>
       </c>
       <c r="X5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AY5" s="1">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BA5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>69</v>
@@ -1445,93 +1492,93 @@
         <v>70</v>
       </c>
       <c r="G6" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.08</v>
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <v>4.16101694915256E-2</v>
+      </c>
+      <c r="N6">
+        <v>4.16101694915256E-2</v>
+      </c>
+      <c r="O6">
+        <v>4.16101694915256E-2</v>
       </c>
       <c r="X6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AY6" s="1">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BA6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>71</v>
@@ -1543,93 +1590,93 @@
         <v>72</v>
       </c>
       <c r="G7" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="M7">
+        <v>5.1762711864407E-2</v>
+      </c>
+      <c r="N7">
+        <v>5.1762711864407E-2</v>
+      </c>
+      <c r="O7">
+        <v>5.1762711864407E-2</v>
       </c>
       <c r="X7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AA7" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AY7" s="1">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BA7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
@@ -1641,93 +1688,93 @@
         <v>74</v>
       </c>
       <c r="G8" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="J8" s="1">
-        <v>750.0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.12</v>
+        <v>750</v>
+      </c>
+      <c r="M8">
+        <v>6.19152542372884E-2</v>
+      </c>
+      <c r="N8">
+        <v>6.19152542372884E-2</v>
+      </c>
+      <c r="O8">
+        <v>6.19152542372884E-2</v>
       </c>
       <c r="X8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AA8" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY8" s="1">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BA8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>75</v>
@@ -1739,90 +1786,90 @@
         <v>76</v>
       </c>
       <c r="G9" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="J9" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.14</v>
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>7.2067796610169793E-2</v>
+      </c>
+      <c r="N9">
+        <v>7.2067796610169793E-2</v>
+      </c>
+      <c r="O9">
+        <v>7.2067796610169793E-2</v>
       </c>
       <c r="X9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AA9" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AY9" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BA9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -1834,90 +1881,90 @@
         <v>78</v>
       </c>
       <c r="G10" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="J10" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.16</v>
+        <v>1500</v>
+      </c>
+      <c r="M10">
+        <v>8.22203389830512E-2</v>
+      </c>
+      <c r="N10">
+        <v>8.22203389830512E-2</v>
+      </c>
+      <c r="O10">
+        <v>8.22203389830512E-2</v>
       </c>
       <c r="X10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AY10" s="1">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BA10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>79</v>
@@ -1929,90 +1976,90 @@
         <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="J11" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.18</v>
+        <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>9.2372881355932607E-2</v>
+      </c>
+      <c r="N11">
+        <v>9.2372881355932607E-2</v>
+      </c>
+      <c r="O11">
+        <v>9.2372881355932607E-2</v>
       </c>
       <c r="X11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY11" s="1">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BA11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>81</v>
@@ -2024,90 +2071,90 @@
         <v>82</v>
       </c>
       <c r="G12" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="J12" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.2</v>
+        <v>5000</v>
+      </c>
+      <c r="M12">
+        <v>0.102525423728814</v>
+      </c>
+      <c r="N12">
+        <v>0.102525423728814</v>
+      </c>
+      <c r="O12">
+        <v>0.102525423728814</v>
       </c>
       <c r="X12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AA12" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY12" s="1">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BA12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>83</v>
@@ -2119,90 +2166,90 @@
         <v>84</v>
       </c>
       <c r="G13" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="J13" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.22</v>
+        <v>7000</v>
+      </c>
+      <c r="M13">
+        <v>0.11267796610169539</v>
+      </c>
+      <c r="N13">
+        <v>0.11267796610169539</v>
+      </c>
+      <c r="O13">
+        <v>0.11267796610169539</v>
       </c>
       <c r="X13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="1">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AY13" s="1">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BA13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>85</v>
@@ -2214,61 +2261,61 @@
         <v>86</v>
       </c>
       <c r="G14" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="J14" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.25</v>
+        <v>10000</v>
+      </c>
+      <c r="M14">
+        <v>0.1228305084745768</v>
+      </c>
+      <c r="N14">
+        <v>0.1228305084745768</v>
+      </c>
+      <c r="O14">
+        <v>0.1228305084745768</v>
       </c>
       <c r="X14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
         <v>0.02</v>
@@ -2283,21 +2330,21 @@
         <v>0.02</v>
       </c>
       <c r="BA14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>87</v>
@@ -2309,61 +2356,61 @@
         <v>88</v>
       </c>
       <c r="G15" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="J15" s="1">
-        <v>15000.0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.27</v>
+        <v>15000</v>
+      </c>
+      <c r="M15">
+        <v>0.13298305084745821</v>
+      </c>
+      <c r="N15">
+        <v>0.13298305084745821</v>
+      </c>
+      <c r="O15">
+        <v>0.13298305084745821</v>
       </c>
       <c r="X15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="1">
         <v>0.04</v>
@@ -2378,21 +2425,21 @@
         <v>0.04</v>
       </c>
       <c r="BA15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>89</v>
@@ -2404,61 +2451,61 @@
         <v>90</v>
       </c>
       <c r="G16" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="J16" s="1">
-        <v>30000.0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.29</v>
+        <v>30000</v>
+      </c>
+      <c r="M16">
+        <v>0.14313559322033959</v>
+      </c>
+      <c r="N16">
+        <v>0.14313559322033959</v>
+      </c>
+      <c r="O16">
+        <v>0.14313559322033959</v>
       </c>
       <c r="X16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AA16" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="1">
         <v>0.06</v>
@@ -2473,21 +2520,21 @@
         <v>0.06</v>
       </c>
       <c r="BA16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -2499,61 +2546,61 @@
         <v>92</v>
       </c>
       <c r="G17" s="1">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="J17" s="1">
-        <v>60000.0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0.3</v>
+        <v>60000</v>
+      </c>
+      <c r="M17">
+        <v>0.15328813559322099</v>
+      </c>
+      <c r="N17">
+        <v>0.15328813559322099</v>
+      </c>
+      <c r="O17">
+        <v>0.15328813559322099</v>
       </c>
       <c r="X17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="1">
         <v>0.08</v>
@@ -2568,21 +2615,21 @@
         <v>0.08</v>
       </c>
       <c r="BA17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>93</v>
@@ -2594,61 +2641,61 @@
         <v>94</v>
       </c>
       <c r="G18" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="J18" s="1">
-        <v>120000.0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.35</v>
+        <v>120000</v>
+      </c>
+      <c r="M18">
+        <v>0.1634406779661024</v>
+      </c>
+      <c r="N18">
+        <v>0.1634406779661024</v>
+      </c>
+      <c r="O18">
+        <v>0.1634406779661024</v>
       </c>
       <c r="X18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="AA18" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1">
         <v>0.1</v>
@@ -2663,21 +2710,21 @@
         <v>0.1</v>
       </c>
       <c r="BA18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>95</v>
@@ -2689,61 +2736,61 @@
         <v>96</v>
       </c>
       <c r="G19" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="J19" s="1">
-        <v>180000.0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0.38</v>
+        <v>180000</v>
+      </c>
+      <c r="M19">
+        <v>0.17359322033898381</v>
+      </c>
+      <c r="N19">
+        <v>0.17359322033898381</v>
+      </c>
+      <c r="O19">
+        <v>0.17359322033898381</v>
       </c>
       <c r="X19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="AA19" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="1">
         <v>0.12</v>
@@ -2758,21 +2805,21 @@
         <v>0.12</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
@@ -2784,90 +2831,90 @@
         <v>98</v>
       </c>
       <c r="G20" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="J20" s="1">
-        <v>240000.0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.4</v>
+        <v>240000</v>
+      </c>
+      <c r="M20">
+        <v>0.18374576271186521</v>
+      </c>
+      <c r="N20">
+        <v>0.18374576271186521</v>
+      </c>
+      <c r="O20">
+        <v>0.18374576271186521</v>
       </c>
       <c r="X20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="AA20" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>99</v>
@@ -2879,61 +2926,61 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="J21" s="1">
-        <v>260000.0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.43</v>
+        <v>260000</v>
+      </c>
+      <c r="M21">
+        <v>0.19389830508474659</v>
+      </c>
+      <c r="N21">
+        <v>0.19389830508474659</v>
+      </c>
+      <c r="O21">
+        <v>0.19389830508474659</v>
       </c>
       <c r="X21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="AA21" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="1">
         <v>0.16</v>
@@ -2948,21 +2995,21 @@
         <v>0.16</v>
       </c>
       <c r="BA21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>101</v>
@@ -2974,61 +3021,61 @@
         <v>102</v>
       </c>
       <c r="G22" s="1">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="J22" s="1">
-        <v>350000.0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.45</v>
+        <v>350000</v>
+      </c>
+      <c r="M22">
+        <v>0.204050847457628</v>
+      </c>
+      <c r="N22">
+        <v>0.204050847457628</v>
+      </c>
+      <c r="O22">
+        <v>0.204050847457628</v>
       </c>
       <c r="X22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="1">
         <v>0.18</v>
@@ -3043,21 +3090,21 @@
         <v>0.18</v>
       </c>
       <c r="BA22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>103</v>
@@ -3069,61 +3116,61 @@
         <v>104</v>
       </c>
       <c r="G23" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="J23" s="1">
-        <v>500000.0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.48</v>
+        <v>500000</v>
+      </c>
+      <c r="M23">
+        <v>0.21420338983050941</v>
+      </c>
+      <c r="N23">
+        <v>0.21420338983050941</v>
+      </c>
+      <c r="O23">
+        <v>0.21420338983050941</v>
       </c>
       <c r="X23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="AA23" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="1">
         <v>0.2</v>
@@ -3138,21 +3185,21 @@
         <v>0.2</v>
       </c>
       <c r="BA23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>105</v>
@@ -3164,61 +3211,61 @@
         <v>106</v>
       </c>
       <c r="G24" s="1">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="J24" s="1">
-        <v>1000000.0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.5</v>
+        <v>1000000</v>
+      </c>
+      <c r="M24">
+        <v>0.22435593220339078</v>
+      </c>
+      <c r="N24">
+        <v>0.22435593220339078</v>
+      </c>
+      <c r="O24">
+        <v>0.22435593220339078</v>
       </c>
       <c r="X24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="AA24" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="1">
         <v>0.22</v>
@@ -3233,21 +3280,21 @@
         <v>0.22</v>
       </c>
       <c r="BA24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>533.0</v>
+        <v>533</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>107</v>
@@ -3259,61 +3306,61 @@
         <v>108</v>
       </c>
       <c r="G25" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="J25" s="1">
-        <v>1.0E7</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.53</v>
+        <v>10000000</v>
+      </c>
+      <c r="M25">
+        <v>0.23450847457627219</v>
+      </c>
+      <c r="N25">
+        <v>0.23450847457627219</v>
+      </c>
+      <c r="O25">
+        <v>0.23450847457627219</v>
       </c>
       <c r="X25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="AA25" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="1">
         <v>0.24</v>
@@ -3328,21 +3375,21 @@
         <v>0.24</v>
       </c>
       <c r="BA25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>612.0</v>
+        <v>612</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>109</v>
@@ -3354,61 +3401,61 @@
         <v>110</v>
       </c>
       <c r="G26" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="J26" s="1">
-        <v>2.5E7</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.55</v>
+        <v>25000000</v>
+      </c>
+      <c r="M26">
+        <v>0.2446610169491536</v>
+      </c>
+      <c r="N26">
+        <v>0.2446610169491536</v>
+      </c>
+      <c r="O26">
+        <v>0.2446610169491536</v>
       </c>
       <c r="X26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="AA26" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="1">
         <v>0.26</v>
@@ -3423,21 +3470,21 @@
         <v>0.26</v>
       </c>
       <c r="BA26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>613.0</v>
+        <v>613</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>111</v>
@@ -3449,90 +3496,90 @@
         <v>112</v>
       </c>
       <c r="G27" s="1">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="J27" s="1">
-        <v>4.0E7</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.58</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.58</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.58</v>
+        <v>40000000</v>
+      </c>
+      <c r="M27">
+        <v>0.25481355932203498</v>
+      </c>
+      <c r="N27">
+        <v>0.25481355932203498</v>
+      </c>
+      <c r="O27">
+        <v>0.25481355932203498</v>
       </c>
       <c r="X27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="AA27" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX27" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AY27" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AZ27" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BA27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>113</v>
@@ -3544,61 +3591,61 @@
         <v>114</v>
       </c>
       <c r="G28" s="1">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="J28" s="1">
-        <v>6.5E7</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.62</v>
+        <v>65000000</v>
+      </c>
+      <c r="M28">
+        <v>0.26496610169491641</v>
+      </c>
+      <c r="N28">
+        <v>0.26496610169491641</v>
+      </c>
+      <c r="O28">
+        <v>0.26496610169491641</v>
       </c>
       <c r="X28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="AA28" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="1">
         <v>0.3</v>
@@ -3613,21 +3660,21 @@
         <v>0.3</v>
       </c>
       <c r="BA28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>115</v>
@@ -3639,61 +3686,61 @@
         <v>116</v>
       </c>
       <c r="G29" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="J29" s="1">
-        <v>1.0E8</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.65</v>
+        <v>100000000</v>
+      </c>
+      <c r="M29">
+        <v>0.27511864406779779</v>
+      </c>
+      <c r="N29">
+        <v>0.27511864406779779</v>
+      </c>
+      <c r="O29">
+        <v>0.27511864406779779</v>
       </c>
       <c r="X29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="AA29" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="1">
         <v>0.32</v>
@@ -3708,21 +3755,21 @@
         <v>0.32</v>
       </c>
       <c r="BA29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="B30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>117</v>
@@ -3734,70 +3781,70 @@
         <v>118</v>
       </c>
       <c r="G30" s="1">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="J30" s="1">
-        <v>1.6E8</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.7</v>
+        <v>160000000</v>
+      </c>
+      <c r="M30">
+        <v>0.28527118644067917</v>
+      </c>
+      <c r="N30">
+        <v>0.28527118644067917</v>
+      </c>
+      <c r="O30">
+        <v>0.28527118644067917</v>
       </c>
       <c r="P30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AA30" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="1">
         <v>0.34</v>
@@ -3812,21 +3859,21 @@
         <v>0.34</v>
       </c>
       <c r="BA30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>119</v>
@@ -3838,76 +3885,76 @@
         <v>120</v>
       </c>
       <c r="G31" s="1">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="J31" s="1">
-        <v>2.5E8</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.73</v>
+        <v>250000000</v>
+      </c>
+      <c r="M31">
+        <v>0.2954237288135606</v>
+      </c>
+      <c r="N31">
+        <v>0.2954237288135606</v>
+      </c>
+      <c r="O31">
+        <v>0.2954237288135606</v>
       </c>
       <c r="P31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="AA31" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="1">
         <v>0.36</v>
@@ -3922,21 +3969,21 @@
         <v>0.36</v>
       </c>
       <c r="BA31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="B32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>121</v>
@@ -3948,67 +3995,67 @@
         <v>122</v>
       </c>
       <c r="G32" s="1">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="J32" s="1">
-        <v>5.0E8</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.75</v>
+        <v>500000000</v>
+      </c>
+      <c r="M32">
+        <v>0.30557627118644198</v>
+      </c>
+      <c r="N32">
+        <v>0.30557627118644198</v>
+      </c>
+      <c r="O32">
+        <v>0.30557627118644198</v>
       </c>
       <c r="P32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="1">
         <v>0.38</v>
@@ -4023,21 +4070,21 @@
         <v>0.38</v>
       </c>
       <c r="BA32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="B33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>123</v>
@@ -4049,61 +4096,61 @@
         <v>124</v>
       </c>
       <c r="G33" s="1">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="J33" s="1">
-        <v>1.0E9</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.78</v>
+        <v>1000000000</v>
+      </c>
+      <c r="M33">
+        <v>0.31572881355932342</v>
+      </c>
+      <c r="N33">
+        <v>0.31572881355932342</v>
+      </c>
+      <c r="O33">
+        <v>0.31572881355932342</v>
       </c>
       <c r="X33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="AA33" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="1">
         <v>0.4</v>
@@ -4118,21 +4165,21 @@
         <v>0.4</v>
       </c>
       <c r="BA33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>59182.0</v>
+        <v>59182</v>
       </c>
       <c r="B34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>125</v>
@@ -4144,61 +4191,61 @@
         <v>126</v>
       </c>
       <c r="G34" s="1">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="J34" s="1">
-        <v>2.0E9</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0.82</v>
+        <v>2000000000</v>
+      </c>
+      <c r="M34">
+        <v>0.3258813559322048</v>
+      </c>
+      <c r="N34">
+        <v>0.3258813559322048</v>
+      </c>
+      <c r="O34">
+        <v>0.3258813559322048</v>
       </c>
       <c r="X34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="AA34" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="1">
         <v>0.42</v>
@@ -4213,21 +4260,21 @@
         <v>0.42</v>
       </c>
       <c r="BA34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>155171.0</v>
+        <v>155171</v>
       </c>
       <c r="B35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>127</v>
@@ -4239,76 +4286,76 @@
         <v>128</v>
       </c>
       <c r="G35" s="1">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="J35" s="1">
-        <v>2.1E9</v>
+        <v>2100000000</v>
       </c>
       <c r="K35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.85</v>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0.33603389830508618</v>
+      </c>
+      <c r="N35">
+        <v>0.33603389830508618</v>
+      </c>
+      <c r="O35">
+        <v>0.33603389830508618</v>
       </c>
       <c r="U35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="AA35" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="1">
         <v>0.44</v>
@@ -4323,21 +4370,21 @@
         <v>0.44</v>
       </c>
       <c r="BA35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>155173.0</v>
+        <v>155173</v>
       </c>
       <c r="B36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>129</v>
@@ -4349,76 +4396,76 @@
         <v>130</v>
       </c>
       <c r="G36" s="1">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="J36" s="1">
-        <v>2.2E9</v>
+        <v>2200000000</v>
       </c>
       <c r="K36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.9</v>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.34618644067796761</v>
+      </c>
+      <c r="N36">
+        <v>0.34618644067796761</v>
+      </c>
+      <c r="O36">
+        <v>0.34618644067796761</v>
       </c>
       <c r="U36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="AA36" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="1">
         <v>0.46</v>
@@ -4433,21 +4480,21 @@
         <v>0.46</v>
       </c>
       <c r="BA36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>65467.0</v>
+        <v>65467</v>
       </c>
       <c r="B37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>131</v>
@@ -4459,70 +4506,70 @@
         <v>132</v>
       </c>
       <c r="G37" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J37" s="1">
-        <v>2.3E9</v>
+        <v>2300000000</v>
       </c>
       <c r="K37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.93</v>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0.35633898305084899</v>
+      </c>
+      <c r="N37">
+        <v>0.35633898305084899</v>
+      </c>
+      <c r="O37">
+        <v>0.35633898305084899</v>
       </c>
       <c r="X37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="AA37" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="1">
         <v>0.48</v>
@@ -4537,21 +4584,21 @@
         <v>0.48</v>
       </c>
       <c r="BA37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>65468.0</v>
+        <v>65468</v>
       </c>
       <c r="B38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>133</v>
@@ -4563,70 +4610,70 @@
         <v>134</v>
       </c>
       <c r="G38" s="1">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="J38" s="1">
-        <v>2.4E9</v>
+        <v>2400000000</v>
       </c>
       <c r="K38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.95</v>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.36649152542373042</v>
+      </c>
+      <c r="N38">
+        <v>0.36649152542373042</v>
+      </c>
+      <c r="O38">
+        <v>0.36649152542373042</v>
       </c>
       <c r="X38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="AA38" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="1">
         <v>0.5</v>
@@ -4641,21 +4688,21 @@
         <v>0.5</v>
       </c>
       <c r="BA38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>94193.0</v>
+        <v>94193</v>
       </c>
       <c r="B39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>135</v>
@@ -4667,99 +4714,99 @@
         <v>136</v>
       </c>
       <c r="G39" s="1">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="J39" s="1">
-        <v>2.8E9</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1.0</v>
+        <v>2800000000</v>
+      </c>
+      <c r="M39">
+        <v>0.3766440677966118</v>
+      </c>
+      <c r="N39">
+        <v>0.3766440677966118</v>
+      </c>
+      <c r="O39">
+        <v>0.3766440677966118</v>
       </c>
       <c r="U39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="AA39" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AX39" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AY39" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AZ39" s="1">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BA39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>94194.0</v>
+        <v>94194</v>
       </c>
       <c r="B40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>137</v>
@@ -4771,70 +4818,70 @@
         <v>138</v>
       </c>
       <c r="G40" s="1">
-        <v>1300.0</v>
+        <v>1300</v>
       </c>
       <c r="J40" s="1">
-        <v>3.2E9</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="N40" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1.1</v>
+        <v>3200000000</v>
+      </c>
+      <c r="M40">
+        <v>0.38679661016949318</v>
+      </c>
+      <c r="N40">
+        <v>0.38679661016949318</v>
+      </c>
+      <c r="O40">
+        <v>0.38679661016949318</v>
       </c>
       <c r="U40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="AA40" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="1">
         <v>0.63</v>
@@ -4849,21 +4896,21 @@
         <v>0.63</v>
       </c>
       <c r="BA40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>94195.0</v>
+        <v>94195</v>
       </c>
       <c r="B41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>139</v>
@@ -4875,70 +4922,70 @@
         <v>140</v>
       </c>
       <c r="G41" s="1">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="J41" s="1">
-        <v>3.3E9</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1.15</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1.15</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1.15</v>
+        <v>3300000000</v>
+      </c>
+      <c r="M41">
+        <v>0.39694915254237462</v>
+      </c>
+      <c r="N41">
+        <v>0.39694915254237462</v>
+      </c>
+      <c r="O41">
+        <v>0.39694915254237462</v>
       </c>
       <c r="U41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="AA41" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="1">
         <v>0.66</v>
@@ -4953,21 +5000,21 @@
         <v>0.66</v>
       </c>
       <c r="BA41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH41" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>94196.0</v>
+        <v>94196</v>
       </c>
       <c r="B42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>141</v>
@@ -4979,70 +5026,70 @@
         <v>142</v>
       </c>
       <c r="G42" s="1">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="J42" s="1">
-        <v>3.5E9</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="N42" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1.18</v>
+        <v>3500000000</v>
+      </c>
+      <c r="M42">
+        <v>0.407101694915256</v>
+      </c>
+      <c r="N42">
+        <v>0.407101694915256</v>
+      </c>
+      <c r="O42">
+        <v>0.407101694915256</v>
       </c>
       <c r="U42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="AA42" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="1">
         <v>0.75</v>
@@ -5057,21 +5104,21 @@
         <v>0.75</v>
       </c>
       <c r="BA42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH42" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>94197.0</v>
+        <v>94197</v>
       </c>
       <c r="B43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>143</v>
@@ -5083,70 +5130,70 @@
         <v>144</v>
       </c>
       <c r="G43" s="1">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="J43" s="1">
-        <v>3.7E9</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="N43" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1.23</v>
+        <v>3700000000</v>
+      </c>
+      <c r="M43">
+        <v>0.41725423728813738</v>
+      </c>
+      <c r="N43">
+        <v>0.41725423728813738</v>
+      </c>
+      <c r="O43">
+        <v>0.41725423728813738</v>
       </c>
       <c r="U43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="AA43" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="1">
         <v>0.78</v>
@@ -5161,21 +5208,21 @@
         <v>0.78</v>
       </c>
       <c r="BA43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH43" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>94199.0</v>
+        <v>94199</v>
       </c>
       <c r="B44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>145</v>
@@ -5187,70 +5234,70 @@
         <v>146</v>
       </c>
       <c r="G44" s="1">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="J44" s="1">
-        <v>4.4E9</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="N44" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1.29</v>
+        <v>4400000000</v>
+      </c>
+      <c r="M44">
+        <v>0.42740677966101881</v>
+      </c>
+      <c r="N44">
+        <v>0.42740677966101881</v>
+      </c>
+      <c r="O44">
+        <v>0.42740677966101881</v>
       </c>
       <c r="U44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="AA44" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="1">
         <v>0.85</v>
@@ -5265,21 +5312,21 @@
         <v>0.85</v>
       </c>
       <c r="BA44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH44" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>165623.0</v>
+        <v>165623</v>
       </c>
       <c r="B45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>147</v>
@@ -5291,70 +5338,70 @@
         <v>148</v>
       </c>
       <c r="G45" s="1">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="J45" s="1">
-        <v>4.6E9</v>
-      </c>
-      <c r="M45" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="N45" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1.34</v>
+        <v>4600000000</v>
+      </c>
+      <c r="M45">
+        <v>0.43755932203390019</v>
+      </c>
+      <c r="N45">
+        <v>0.43755932203390019</v>
+      </c>
+      <c r="O45">
+        <v>0.43755932203390019</v>
       </c>
       <c r="U45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="AA45" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="1">
         <v>0.88</v>
@@ -5369,21 +5416,21 @@
         <v>0.88</v>
       </c>
       <c r="BA45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH45" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>94201.0</v>
+        <v>94201</v>
       </c>
       <c r="B46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>149</v>
@@ -5395,70 +5442,70 @@
         <v>150</v>
       </c>
       <c r="G46" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="J46" s="1">
-        <v>5.0E9</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1.38</v>
-      </c>
-      <c r="N46" s="1">
-        <v>1.38</v>
-      </c>
-      <c r="O46" s="1">
-        <v>1.38</v>
+        <v>5000000000</v>
+      </c>
+      <c r="M46">
+        <v>0.44771186440678157</v>
+      </c>
+      <c r="N46">
+        <v>0.44771186440678157</v>
+      </c>
+      <c r="O46">
+        <v>0.44771186440678157</v>
       </c>
       <c r="U46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="AA46" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="1">
         <v>0.93</v>
@@ -5473,21 +5520,21 @@
         <v>0.93</v>
       </c>
       <c r="BA46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH46" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>165624.0</v>
+        <v>165624</v>
       </c>
       <c r="B47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>151</v>
@@ -5499,70 +5546,70 @@
         <v>152</v>
       </c>
       <c r="G47" s="1">
-        <v>2100.0</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="1">
-        <v>5.3E9</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N47" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1.4</v>
+        <v>5300000000</v>
+      </c>
+      <c r="M47">
+        <v>0.457864406779663</v>
+      </c>
+      <c r="N47">
+        <v>0.457864406779663</v>
+      </c>
+      <c r="O47">
+        <v>0.457864406779663</v>
       </c>
       <c r="U47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="AA47" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="AB47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="1">
         <v>0.94</v>
@@ -5577,21 +5624,21 @@
         <v>0.94</v>
       </c>
       <c r="BA47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH47" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>94203.0</v>
+        <v>94203</v>
       </c>
       <c r="B48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>153</v>
@@ -5603,70 +5650,70 @@
         <v>154</v>
       </c>
       <c r="G48" s="1">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="J48" s="1">
-        <v>5.6E9</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="N48" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="O48" s="1">
-        <v>1.43</v>
+        <v>5600000000</v>
+      </c>
+      <c r="M48">
+        <v>0.46801694915254438</v>
+      </c>
+      <c r="N48">
+        <v>0.46801694915254438</v>
+      </c>
+      <c r="O48">
+        <v>0.46801694915254438</v>
       </c>
       <c r="U48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="AA48" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="1">
         <v>0.96</v>
@@ -5681,21 +5728,21 @@
         <v>0.96</v>
       </c>
       <c r="BA48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH48" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>94205.0</v>
+        <v>94205</v>
       </c>
       <c r="B49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>155</v>
@@ -5707,99 +5754,99 @@
         <v>156</v>
       </c>
       <c r="G49" s="1">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="J49" s="1">
-        <v>6.0E9</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="N49" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1.48</v>
+        <v>6000000000</v>
+      </c>
+      <c r="M49">
+        <v>0.47816949152542582</v>
+      </c>
+      <c r="N49">
+        <v>0.47816949152542582</v>
+      </c>
+      <c r="O49">
+        <v>0.47816949152542582</v>
       </c>
       <c r="U49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="AA49" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="AB49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>165625.0</v>
+        <v>165625</v>
       </c>
       <c r="B50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>157</v>
@@ -5811,99 +5858,99 @@
         <v>158</v>
       </c>
       <c r="G50" s="1">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="J50" s="1">
-        <v>6.3E9</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O50" s="1">
-        <v>1.5</v>
+        <v>6300000000</v>
+      </c>
+      <c r="M50">
+        <v>0.4883220338983072</v>
+      </c>
+      <c r="N50">
+        <v>0.4883220338983072</v>
+      </c>
+      <c r="O50">
+        <v>0.4883220338983072</v>
       </c>
       <c r="U50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="AA50" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>94207.0</v>
+        <v>94207</v>
       </c>
       <c r="B51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>159</v>
@@ -5915,99 +5962,99 @@
         <v>160</v>
       </c>
       <c r="G51" s="1">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="J51" s="1">
-        <v>1.0E10</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1.53</v>
+        <v>10000000000</v>
+      </c>
+      <c r="M51">
+        <v>0.49847457627118857</v>
+      </c>
+      <c r="N51">
+        <v>0.49847457627118857</v>
+      </c>
+      <c r="O51">
+        <v>0.49847457627118857</v>
       </c>
       <c r="U51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="AA51" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>94208.0</v>
+        <v>94208</v>
       </c>
       <c r="B52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>161</v>
@@ -6019,90 +6066,90 @@
         <v>162</v>
       </c>
       <c r="G52" s="1">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="1">
-        <v>1.2E10</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="N52" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1.6</v>
+        <v>12000000000</v>
+      </c>
+      <c r="M52">
+        <v>0.50862711864406995</v>
+      </c>
+      <c r="N52">
+        <v>0.50862711864406995</v>
+      </c>
+      <c r="O52">
+        <v>0.50862711864406995</v>
       </c>
       <c r="U52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="AA52" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH52" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>296203.0</v>
+        <v>296203</v>
       </c>
       <c r="B53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>163</v>
@@ -6114,99 +6161,99 @@
         <v>164</v>
       </c>
       <c r="G53" s="1">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="J53" s="1">
-        <v>1.6E10</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="N53" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1.67</v>
+        <v>16000000000</v>
+      </c>
+      <c r="M53">
+        <v>0.51877966101695139</v>
+      </c>
+      <c r="N53">
+        <v>0.51877966101695139</v>
+      </c>
+      <c r="O53">
+        <v>0.51877966101695139</v>
       </c>
       <c r="U53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="AA53" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH53" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>296204.0</v>
+        <v>296204</v>
       </c>
       <c r="B54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>165</v>
@@ -6218,99 +6265,99 @@
         <v>166</v>
       </c>
       <c r="G54" s="1">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="J54" s="1">
-        <v>1.8E10</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="N54" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1.68</v>
+        <v>18000000000</v>
+      </c>
+      <c r="M54">
+        <v>0.52893220338983282</v>
+      </c>
+      <c r="N54">
+        <v>0.52893220338983282</v>
+      </c>
+      <c r="O54">
+        <v>0.52893220338983282</v>
       </c>
       <c r="U54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z54" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="AA54" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>296205.0</v>
+        <v>296205</v>
       </c>
       <c r="B55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>167</v>
@@ -6322,99 +6369,99 @@
         <v>168</v>
       </c>
       <c r="G55" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="J55" s="1">
-        <v>2.2E10</v>
-      </c>
-      <c r="M55" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="N55" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1.7</v>
+        <v>22000000000</v>
+      </c>
+      <c r="M55">
+        <v>0.53908474576271415</v>
+      </c>
+      <c r="N55">
+        <v>0.53908474576271415</v>
+      </c>
+      <c r="O55">
+        <v>0.53908474576271415</v>
       </c>
       <c r="U55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="AA55" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="AB55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH55" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>296206.0</v>
+        <v>296206</v>
       </c>
       <c r="B56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>169</v>
@@ -6426,99 +6473,99 @@
         <v>170</v>
       </c>
       <c r="G56" s="1">
-        <v>3200.0</v>
+        <v>3200</v>
       </c>
       <c r="J56" s="1">
-        <v>2.4E10</v>
-      </c>
-      <c r="M56" s="1">
-        <v>1.73</v>
-      </c>
-      <c r="N56" s="1">
-        <v>1.73</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1.73</v>
+        <v>24000000000</v>
+      </c>
+      <c r="M56">
+        <v>0.54923728813559558</v>
+      </c>
+      <c r="N56">
+        <v>0.54923728813559558</v>
+      </c>
+      <c r="O56">
+        <v>0.54923728813559558</v>
       </c>
       <c r="U56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="AA56" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH56" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>296207.0</v>
+        <v>296207</v>
       </c>
       <c r="B57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>171</v>
@@ -6530,99 +6577,99 @@
         <v>172</v>
       </c>
       <c r="G57" s="1">
-        <v>3400.0</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="1">
-        <v>2.6E10</v>
-      </c>
-      <c r="M57" s="1">
-        <v>1.78</v>
-      </c>
-      <c r="N57" s="1">
-        <v>1.78</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1.78</v>
+        <v>26000000000</v>
+      </c>
+      <c r="M57">
+        <v>0.55938983050847702</v>
+      </c>
+      <c r="N57">
+        <v>0.55938983050847702</v>
+      </c>
+      <c r="O57">
+        <v>0.55938983050847702</v>
       </c>
       <c r="U57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="AA57" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="AB57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>296208.0</v>
+        <v>296208</v>
       </c>
       <c r="B58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>173</v>
@@ -6634,99 +6681,99 @@
         <v>174</v>
       </c>
       <c r="G58" s="1">
-        <v>3600.0</v>
+        <v>3600</v>
       </c>
       <c r="J58" s="1">
-        <v>2.8E10</v>
-      </c>
-      <c r="M58" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="N58" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1.8</v>
+        <v>28000000000</v>
+      </c>
+      <c r="M58">
+        <v>0.56954237288135834</v>
+      </c>
+      <c r="N58">
+        <v>0.56954237288135834</v>
+      </c>
+      <c r="O58">
+        <v>0.56954237288135834</v>
       </c>
       <c r="U58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="AA58" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="AB58" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>296209.0</v>
+        <v>296209</v>
       </c>
       <c r="B59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>175</v>
@@ -6738,99 +6785,99 @@
         <v>176</v>
       </c>
       <c r="G59" s="1">
-        <v>3800.0</v>
+        <v>3800</v>
       </c>
       <c r="J59" s="1">
-        <v>3.0E10</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="N59" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="O59" s="1">
-        <v>1.84</v>
+        <v>30000000000</v>
+      </c>
+      <c r="M59">
+        <v>0.57969491525423977</v>
+      </c>
+      <c r="N59">
+        <v>0.57969491525423977</v>
+      </c>
+      <c r="O59">
+        <v>0.57969491525423977</v>
       </c>
       <c r="U59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z59" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="AA59" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="AB59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH59" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>296210.0</v>
+        <v>296210</v>
       </c>
       <c r="B60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>177</v>
@@ -6842,99 +6889,99 @@
         <v>178</v>
       </c>
       <c r="G60" s="1">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="J60" s="1">
-        <v>3.2E10</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1.86</v>
+        <v>32000000000</v>
+      </c>
+      <c r="M60">
+        <v>0.58984745762712121</v>
+      </c>
+      <c r="N60">
+        <v>0.58984745762712121</v>
+      </c>
+      <c r="O60">
+        <v>0.58984745762712121</v>
       </c>
       <c r="U60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="AA60" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="AB60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>296211.0</v>
+        <v>296211</v>
       </c>
       <c r="B61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>179</v>
@@ -6946,1036 +6993,1034 @@
         <v>180</v>
       </c>
       <c r="G61" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="J61" s="1">
-        <v>3.4E10</v>
-      </c>
-      <c r="M61" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="N61" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="O61" s="1">
-        <v>1.93</v>
+        <v>34000000000</v>
+      </c>
+      <c r="M61">
+        <v>0.60000000000000264</v>
+      </c>
+      <c r="N61">
+        <v>0.60000000000000264</v>
+      </c>
+      <c r="O61">
+        <v>0.60000000000000264</v>
       </c>
       <c r="U61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="AA61" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="AB61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AX61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AZ61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BA61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/data-imports/items/Rings.xlsx
+++ b/resources/data-imports/items/Rings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5144391-BF36-DF4B-B629-398FD9C9249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D84F7-6B97-E840-8F96-B7956EB27A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,10 +617,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +840,7 @@
   <dimension ref="A1:BH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O61"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1099,8 +1100,8 @@
       <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -1197,8 +1198,8 @@
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="1">
-        <v>8</v>
+      <c r="G3" s="3">
+        <v>6.0677966101694896</v>
       </c>
       <c r="J3" s="1">
         <v>25</v>
@@ -1295,8 +1296,8 @@
       <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1">
-        <v>16</v>
+      <c r="G4" s="3">
+        <v>11.135593220338979</v>
       </c>
       <c r="J4" s="1">
         <v>75</v>
@@ -1393,8 +1394,8 @@
       <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="1">
-        <v>40</v>
+      <c r="G5" s="3">
+        <v>16.20338983050847</v>
       </c>
       <c r="J5" s="1">
         <v>150</v>
@@ -1491,8 +1492,8 @@
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1">
-        <v>80</v>
+      <c r="G6" s="3">
+        <v>21.271186440677958</v>
       </c>
       <c r="J6" s="1">
         <v>250</v>
@@ -1589,8 +1590,8 @@
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1">
-        <v>120</v>
+      <c r="G7" s="3">
+        <v>26.338983050847446</v>
       </c>
       <c r="J7" s="1">
         <v>500</v>
@@ -1687,8 +1688,8 @@
       <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="1">
-        <v>145</v>
+      <c r="G8" s="3">
+        <v>31.406779661016937</v>
       </c>
       <c r="J8" s="1">
         <v>750</v>
@@ -1785,8 +1786,8 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="1">
-        <v>160</v>
+      <c r="G9" s="3">
+        <v>36.474576271186429</v>
       </c>
       <c r="J9" s="1">
         <v>1000</v>
@@ -1880,8 +1881,8 @@
       <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1">
-        <v>190</v>
+      <c r="G10" s="3">
+        <v>41.542372881355917</v>
       </c>
       <c r="J10" s="1">
         <v>1500</v>
@@ -1975,8 +1976,8 @@
       <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1">
-        <v>220</v>
+      <c r="G11" s="3">
+        <v>46.610169491525404</v>
       </c>
       <c r="J11" s="1">
         <v>3000</v>
@@ -2070,8 +2071,8 @@
       <c r="E12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="1">
-        <v>250</v>
+      <c r="G12" s="3">
+        <v>51.677966101694892</v>
       </c>
       <c r="J12" s="1">
         <v>5000</v>
@@ -2165,8 +2166,8 @@
       <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1">
-        <v>280</v>
+      <c r="G13" s="3">
+        <v>56.745762711864387</v>
       </c>
       <c r="J13" s="1">
         <v>7000</v>
@@ -2260,8 +2261,8 @@
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="1">
-        <v>340</v>
+      <c r="G14" s="3">
+        <v>61.813559322033875</v>
       </c>
       <c r="J14" s="1">
         <v>10000</v>
@@ -2355,8 +2356,8 @@
       <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="1">
-        <v>380</v>
+      <c r="G15" s="3">
+        <v>66.881355932203363</v>
       </c>
       <c r="J15" s="1">
         <v>15000</v>
@@ -2450,8 +2451,8 @@
       <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1">
-        <v>450</v>
+      <c r="G16" s="3">
+        <v>71.949152542372858</v>
       </c>
       <c r="J16" s="1">
         <v>30000</v>
@@ -2545,8 +2546,8 @@
       <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1">
-        <v>475</v>
+      <c r="G17" s="3">
+        <v>77.016949152542338</v>
       </c>
       <c r="J17" s="1">
         <v>60000</v>
@@ -2640,8 +2641,8 @@
       <c r="E18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="1">
-        <v>490</v>
+      <c r="G18" s="3">
+        <v>82.084745762711833</v>
       </c>
       <c r="J18" s="1">
         <v>120000</v>
@@ -2735,8 +2736,8 @@
       <c r="E19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="1">
-        <v>520</v>
+      <c r="G19" s="3">
+        <v>87.152542372881328</v>
       </c>
       <c r="J19" s="1">
         <v>180000</v>
@@ -2830,8 +2831,8 @@
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="1">
-        <v>540</v>
+      <c r="G20" s="3">
+        <v>92.220338983050809</v>
       </c>
       <c r="J20" s="1">
         <v>240000</v>
@@ -2925,8 +2926,8 @@
       <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="1">
-        <v>560</v>
+      <c r="G21" s="3">
+        <v>97.288135593220304</v>
       </c>
       <c r="J21" s="1">
         <v>260000</v>
@@ -3020,8 +3021,8 @@
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="1">
-        <v>580</v>
+      <c r="G22" s="3">
+        <v>102.35593220338978</v>
       </c>
       <c r="J22" s="1">
         <v>350000</v>
@@ -3115,8 +3116,8 @@
       <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="1">
-        <v>600</v>
+      <c r="G23" s="3">
+        <v>107.42372881355928</v>
       </c>
       <c r="J23" s="1">
         <v>500000</v>
@@ -3210,8 +3211,8 @@
       <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="1">
-        <v>620</v>
+      <c r="G24" s="3">
+        <v>112.49152542372877</v>
       </c>
       <c r="J24" s="1">
         <v>1000000</v>
@@ -3305,8 +3306,8 @@
       <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="1">
-        <v>630</v>
+      <c r="G25" s="3">
+        <v>117.55932203389825</v>
       </c>
       <c r="J25" s="1">
         <v>10000000</v>
@@ -3400,8 +3401,8 @@
       <c r="E26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1">
-        <v>640</v>
+      <c r="G26" s="3">
+        <v>122.62711864406775</v>
       </c>
       <c r="J26" s="1">
         <v>25000000</v>
@@ -3495,8 +3496,8 @@
       <c r="E27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="1">
-        <v>660</v>
+      <c r="G27" s="3">
+        <v>127.69491525423724</v>
       </c>
       <c r="J27" s="1">
         <v>40000000</v>
@@ -3590,8 +3591,8 @@
       <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="1">
-        <v>680</v>
+      <c r="G28" s="3">
+        <v>132.76271186440673</v>
       </c>
       <c r="J28" s="1">
         <v>65000000</v>
@@ -3685,8 +3686,8 @@
       <c r="E29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="1">
-        <v>700</v>
+      <c r="G29" s="3">
+        <v>137.83050847457622</v>
       </c>
       <c r="J29" s="1">
         <v>100000000</v>
@@ -3780,8 +3781,8 @@
       <c r="E30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="1">
-        <v>720</v>
+      <c r="G30" s="3">
+        <v>142.89830508474572</v>
       </c>
       <c r="J30" s="1">
         <v>160000000</v>
@@ -3884,8 +3885,8 @@
       <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="1">
-        <v>730</v>
+      <c r="G31" s="3">
+        <v>147.96610169491521</v>
       </c>
       <c r="J31" s="1">
         <v>250000000</v>
@@ -3994,8 +3995,8 @@
       <c r="E32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="1">
-        <v>740</v>
+      <c r="G32" s="3">
+        <v>153.03389830508468</v>
       </c>
       <c r="J32" s="1">
         <v>500000000</v>
@@ -4095,8 +4096,8 @@
       <c r="E33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="1">
-        <v>800</v>
+      <c r="G33" s="3">
+        <v>158.10169491525417</v>
       </c>
       <c r="J33" s="1">
         <v>1000000000</v>
@@ -4190,8 +4191,8 @@
       <c r="E34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="1">
-        <v>845</v>
+      <c r="G34" s="3">
+        <v>163.16949152542367</v>
       </c>
       <c r="J34" s="1">
         <v>2000000000</v>
@@ -4285,8 +4286,8 @@
       <c r="E35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="1">
-        <v>900</v>
+      <c r="G35" s="3">
+        <v>168.23728813559316</v>
       </c>
       <c r="J35" s="1">
         <v>2100000000</v>
@@ -4395,8 +4396,8 @@
       <c r="E36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="1">
-        <v>950</v>
+      <c r="G36" s="3">
+        <v>173.30508474576266</v>
       </c>
       <c r="J36" s="1">
         <v>2200000000</v>
@@ -4505,8 +4506,8 @@
       <c r="E37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="1">
-        <v>1000</v>
+      <c r="G37" s="3">
+        <v>178.37288135593212</v>
       </c>
       <c r="J37" s="1">
         <v>2300000000</v>
@@ -4609,8 +4610,8 @@
       <c r="E38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="1">
-        <v>1100</v>
+      <c r="G38" s="3">
+        <v>183.44067796610162</v>
       </c>
       <c r="J38" s="1">
         <v>2400000000</v>
@@ -4713,8 +4714,8 @@
       <c r="E39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="1">
-        <v>1200</v>
+      <c r="G39" s="3">
+        <v>188.50847457627111</v>
       </c>
       <c r="J39" s="1">
         <v>2800000000</v>
@@ -4817,8 +4818,8 @@
       <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="1">
-        <v>1300</v>
+      <c r="G40" s="3">
+        <v>193.57627118644061</v>
       </c>
       <c r="J40" s="1">
         <v>3200000000</v>
@@ -4921,8 +4922,8 @@
       <c r="E41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="1">
-        <v>1400</v>
+      <c r="G41" s="3">
+        <v>198.6440677966101</v>
       </c>
       <c r="J41" s="1">
         <v>3300000000</v>
@@ -5025,8 +5026,8 @@
       <c r="E42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="1">
-        <v>1500</v>
+      <c r="G42" s="3">
+        <v>203.71186440677957</v>
       </c>
       <c r="J42" s="1">
         <v>3500000000</v>
@@ -5129,8 +5130,8 @@
       <c r="E43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="1">
-        <v>1600</v>
+      <c r="G43" s="3">
+        <v>208.77966101694906</v>
       </c>
       <c r="J43" s="1">
         <v>3700000000</v>
@@ -5233,8 +5234,8 @@
       <c r="E44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="1">
-        <v>1800</v>
+      <c r="G44" s="3">
+        <v>213.84745762711856</v>
       </c>
       <c r="J44" s="1">
         <v>4400000000</v>
@@ -5337,8 +5338,8 @@
       <c r="E45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="1">
-        <v>1900</v>
+      <c r="G45" s="3">
+        <v>218.91525423728805</v>
       </c>
       <c r="J45" s="1">
         <v>4600000000</v>
@@ -5441,8 +5442,8 @@
       <c r="E46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="1">
-        <v>2000</v>
+      <c r="G46" s="3">
+        <v>223.98305084745755</v>
       </c>
       <c r="J46" s="1">
         <v>5000000000</v>
@@ -5545,8 +5546,8 @@
       <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="1">
-        <v>2100</v>
+      <c r="G47" s="3">
+        <v>229.05084745762704</v>
       </c>
       <c r="J47" s="1">
         <v>5300000000</v>
@@ -5649,8 +5650,8 @@
       <c r="E48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="1">
-        <v>2200</v>
+      <c r="G48" s="3">
+        <v>234.11864406779651</v>
       </c>
       <c r="J48" s="1">
         <v>5600000000</v>
@@ -5753,8 +5754,8 @@
       <c r="E49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="1">
-        <v>2400</v>
+      <c r="G49" s="3">
+        <v>239.186440677966</v>
       </c>
       <c r="J49" s="1">
         <v>6000000000</v>
@@ -5857,8 +5858,8 @@
       <c r="E50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G50" s="1">
-        <v>2500</v>
+      <c r="G50" s="3">
+        <v>244.2542372881355</v>
       </c>
       <c r="J50" s="1">
         <v>6300000000</v>
@@ -5961,8 +5962,8 @@
       <c r="E51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="1">
-        <v>2600</v>
+      <c r="G51" s="3">
+        <v>249.32203389830499</v>
       </c>
       <c r="J51" s="1">
         <v>10000000000</v>
@@ -6065,8 +6066,8 @@
       <c r="E52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="1">
-        <v>2700</v>
+      <c r="G52" s="3">
+        <v>254.38983050847449</v>
       </c>
       <c r="J52" s="1">
         <v>12000000000</v>
@@ -6160,8 +6161,8 @@
       <c r="E53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G53" s="1">
-        <v>2800</v>
+      <c r="G53" s="3">
+        <v>259.45762711864398</v>
       </c>
       <c r="J53" s="1">
         <v>16000000000</v>
@@ -6264,8 +6265,8 @@
       <c r="E54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="1">
-        <v>2900</v>
+      <c r="G54" s="3">
+        <v>264.52542372881345</v>
       </c>
       <c r="J54" s="1">
         <v>18000000000</v>
@@ -6368,8 +6369,8 @@
       <c r="E55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="1">
-        <v>3000</v>
+      <c r="G55" s="3">
+        <v>269.59322033898297</v>
       </c>
       <c r="J55" s="1">
         <v>22000000000</v>
@@ -6472,8 +6473,8 @@
       <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G56" s="1">
-        <v>3200</v>
+      <c r="G56" s="3">
+        <v>274.66101694915244</v>
       </c>
       <c r="J56" s="1">
         <v>24000000000</v>
@@ -6576,8 +6577,8 @@
       <c r="E57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="1">
-        <v>3400</v>
+      <c r="G57" s="3">
+        <v>279.72881355932191</v>
       </c>
       <c r="J57" s="1">
         <v>26000000000</v>
@@ -6680,8 +6681,8 @@
       <c r="E58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="1">
-        <v>3600</v>
+      <c r="G58" s="3">
+        <v>284.79661016949143</v>
       </c>
       <c r="J58" s="1">
         <v>28000000000</v>
@@ -6784,8 +6785,8 @@
       <c r="E59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G59" s="1">
-        <v>3800</v>
+      <c r="G59" s="3">
+        <v>289.8644067796609</v>
       </c>
       <c r="J59" s="1">
         <v>30000000000</v>
@@ -6888,8 +6889,8 @@
       <c r="E60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="1">
-        <v>2900</v>
+      <c r="G60" s="3">
+        <v>294.93220338983042</v>
       </c>
       <c r="J60" s="1">
         <v>32000000000</v>
@@ -6992,8 +6993,8 @@
       <c r="E61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="1">
-        <v>3000</v>
+      <c r="G61" s="3">
+        <v>299.99999999999989</v>
       </c>
       <c r="J61" s="1">
         <v>34000000000</v>
